--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
@@ -11,8 +11,13 @@
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AME$66</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AME$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AME$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AME$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AME$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AME$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AME$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AME$66</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -742,6 +747,9 @@
     <t xml:space="preserve">Coca-Cola</t>
   </si>
   <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD 1 door, SSD  1.5 door, Mixed 1 door, Mixed  1.5 door</t>
   </si>
   <si>
@@ -805,10 +813,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
   </si>
   <si>
-    <t xml:space="preserve">number of facings every  TCC SKUs on Scenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skus</t>
+    <t xml:space="preserve">number of facings every TCC SKUs on Scenes</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: w/o other products</t>
@@ -1003,7 +1008,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,6 +1024,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -1076,7 +1087,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1087,6 +1098,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1193,6 +1208,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1215,303 +1234,297 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:60"/>
+  <dimension ref="A1:AMF60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.663967611336"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="78.6234817813765"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="1020" min="39" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6518218623482"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="43.6477732793522"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.0728744939271"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.3238866396761"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.6882591093117"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.8663967611336"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="44.5910931174089"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.2226720647773"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="24.9028340080972"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="86.8016194331984"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="77.9838056680162"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1020" min="39" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="12" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" s="13" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="10" t="n">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ2" s="10" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AK2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="10"/>
+      <c r="AL2" s="11"/>
       <c r="AME2" s="1"/>
       <c r="AMF2" s="1"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="10" t="n">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ3" s="10" t="n">
+      <c r="AJ3" s="11" t="n">
         <v>301</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="11" t="n">
         <v>303</v>
       </c>
-      <c r="AL3" s="10"/>
+      <c r="AL3" s="11"/>
       <c r="AM3" s="0"/>
       <c r="AN3" s="0"/>
       <c r="AO3" s="0"/>
@@ -2492,66 +2505,68 @@
       <c r="AMB3" s="0"/>
       <c r="AMC3" s="0"/>
       <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
         <v>60</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="10" t="n">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ4" s="14" t="n">
+      <c r="AJ4" s="15" t="n">
         <v>303</v>
       </c>
-      <c r="AK4" s="10" t="n">
+      <c r="AK4" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="AL4" s="10" t="n">
+      <c r="AL4" s="11" t="n">
         <v>301</v>
       </c>
       <c r="AM4" s="0"/>
@@ -3534,66 +3549,68 @@
       <c r="AMB4" s="0"/>
       <c r="AMC4" s="0"/>
       <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="10" t="n">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ5" s="14" t="n">
+      <c r="AJ5" s="15" t="n">
         <v>310</v>
       </c>
-      <c r="AK5" s="11" t="s">
+      <c r="AK5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AL5" s="10"/>
+      <c r="AL5" s="11"/>
       <c r="AM5" s="0"/>
       <c r="AN5" s="0"/>
       <c r="AO5" s="0"/>
@@ -4574,66 +4591,68 @@
       <c r="AMB5" s="0"/>
       <c r="AMC5" s="0"/>
       <c r="AMD5" s="0"/>
+      <c r="AME5" s="0"/>
+      <c r="AMF5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="10" t="n">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ6" s="14" t="n">
+      <c r="AJ6" s="15" t="n">
         <v>311</v>
       </c>
-      <c r="AK6" s="7" t="n">
+      <c r="AK6" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="AL6" s="7" t="n">
+      <c r="AL6" s="8" t="n">
         <v>310</v>
       </c>
       <c r="AM6" s="0"/>
@@ -5616,66 +5635,68 @@
       <c r="AMB6" s="0"/>
       <c r="AMC6" s="0"/>
       <c r="AMD6" s="0"/>
+      <c r="AME6" s="0"/>
+      <c r="AMF6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
         <v>66</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="10" t="n">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ7" s="14" t="n">
+      <c r="AJ7" s="15" t="n">
         <v>312</v>
       </c>
-      <c r="AK7" s="11" t="s">
+      <c r="AK7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AL7" s="10" t="n">
+      <c r="AL7" s="11" t="n">
         <v>310</v>
       </c>
       <c r="AM7" s="0"/>
@@ -6658,70 +6679,74 @@
       <c r="AMB7" s="0"/>
       <c r="AMC7" s="0"/>
       <c r="AMD7" s="0"/>
+      <c r="AME7" s="0"/>
+      <c r="AMF7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7" t="n">
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ8" s="7" t="n">
+      <c r="AJ8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AK8" s="16" t="s">
+      <c r="AK8" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AL8" s="7"/>
+      <c r="AL8" s="8" t="n">
+        <v>300</v>
+      </c>
       <c r="AM8" s="0"/>
       <c r="AN8" s="0"/>
       <c r="AO8" s="0"/>
@@ -7705,83 +7730,83 @@
       <c r="AME8" s="0"/>
       <c r="AMF8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="n">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="17" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="7" t="s">
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7" t="s">
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7" t="s">
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7" t="s">
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD9" s="18" t="n">
+      <c r="AD9" s="19" t="n">
         <v>0.0213928</v>
       </c>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7" t="n">
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ9" s="7" t="n">
+      <c r="AJ9" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7" t="n">
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM9" s="0"/>
@@ -8767,83 +8792,83 @@
       <c r="AME9" s="0"/>
       <c r="AMF9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="n">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="17" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="7" t="s">
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7" t="s">
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7" t="s">
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7" t="s">
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD10" s="18" t="n">
+      <c r="AD10" s="19" t="n">
         <v>0.0213928</v>
       </c>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7" t="n">
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ10" s="7" t="n">
+      <c r="AJ10" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7" t="n">
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM10" s="0"/>
@@ -9829,83 +9854,83 @@
       <c r="AME10" s="0"/>
       <c r="AMF10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="n">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="17" t="s">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7" t="s">
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7" t="s">
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7" t="s">
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7" t="s">
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD11" s="18" t="n">
+      <c r="AD11" s="19" t="n">
         <v>0.0213928</v>
       </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7" t="n">
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ11" s="7" t="n">
+      <c r="AJ11" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7" t="n">
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM11" s="0"/>
@@ -10891,83 +10916,83 @@
       <c r="AME11" s="0"/>
       <c r="AMF11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="n">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="17" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="7" t="s">
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7" t="s">
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7" t="s">
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7" t="s">
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD12" s="18" t="n">
+      <c r="AD12" s="19" t="n">
         <v>0.0213928</v>
       </c>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7" t="n">
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ12" s="7" t="n">
+      <c r="AJ12" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7" t="n">
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM12" s="0"/>
@@ -11953,83 +11978,83 @@
       <c r="AME12" s="0"/>
       <c r="AMF12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="n">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="17" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="7" t="s">
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7" t="s">
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7" t="s">
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7" t="s">
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD13" s="18" t="n">
+      <c r="AD13" s="19" t="n">
         <v>0.0213707</v>
       </c>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7" t="n">
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ13" s="7" t="n">
+      <c r="AJ13" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7" t="n">
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM13" s="0"/>
@@ -13015,83 +13040,83 @@
       <c r="AME13" s="0"/>
       <c r="AMF13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="n">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="17" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7" t="s">
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7" t="s">
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7" t="s">
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7" t="s">
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD14" s="18" t="n">
+      <c r="AD14" s="19" t="n">
         <v>0.0213707</v>
       </c>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7" t="n">
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ14" s="7" t="n">
+      <c r="AJ14" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7" t="n">
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM14" s="0"/>
@@ -14077,83 +14102,83 @@
       <c r="AME14" s="0"/>
       <c r="AMF14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="n">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="17" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7" t="s">
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7" t="s">
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7" t="s">
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7" t="s">
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD15" s="18" t="n">
+      <c r="AD15" s="19" t="n">
         <v>0.0213707</v>
       </c>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7" t="n">
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ15" s="7" t="n">
+      <c r="AJ15" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7" t="n">
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM15" s="0"/>
@@ -15139,81 +15164,81 @@
       <c r="AME15" s="0"/>
       <c r="AMF15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7" t="s">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7" t="s">
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7" t="s">
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7" t="s">
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7" t="s">
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD16" s="18" t="n">
+      <c r="AD16" s="19" t="n">
         <v>0.0213707</v>
       </c>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7" t="n">
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ16" s="7" t="n">
+      <c r="AJ16" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7" t="n">
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM16" s="0"/>
@@ -16199,83 +16224,83 @@
       <c r="AME16" s="0"/>
       <c r="AMF16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="n">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7" t="s">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7" t="s">
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7" t="s">
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7" t="s">
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7" t="s">
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD17" s="18" t="n">
+      <c r="AD17" s="19" t="n">
         <v>0.0099892</v>
       </c>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7" t="n">
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ17" s="7" t="n">
+      <c r="AJ17" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7" t="n">
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM17" s="0"/>
@@ -17261,83 +17286,83 @@
       <c r="AME17" s="0"/>
       <c r="AMF17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="n">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7" t="s">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="7" t="s">
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7" t="s">
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7" t="s">
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7" t="s">
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD18" s="18" t="n">
+      <c r="AD18" s="19" t="n">
         <v>0.0099892</v>
       </c>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7" t="n">
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ18" s="7" t="n">
+      <c r="AJ18" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7" t="n">
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM18" s="0"/>
@@ -18323,83 +18348,83 @@
       <c r="AME18" s="0"/>
       <c r="AMF18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="n">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="17" t="s">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7" t="s">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7" t="s">
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7" t="s">
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7" t="s">
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD19" s="18" t="n">
+      <c r="AD19" s="19" t="n">
         <v>0.0099892</v>
       </c>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7" t="n">
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ19" s="7" t="n">
+      <c r="AJ19" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7" t="n">
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM19" s="0"/>
@@ -19385,168 +19410,164 @@
       <c r="AME19" s="0"/>
       <c r="AMF19" s="0"/>
     </row>
-    <row r="20" s="12" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+    <row r="20" s="13" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="n">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7" t="s">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="7" t="s">
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="R20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7" t="s">
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7" t="s">
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7" t="s">
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD20" s="18" t="n">
+      <c r="AD20" s="19" t="n">
         <v>0.0099892</v>
       </c>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7" t="n">
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ20" s="7" t="n">
+      <c r="AJ20" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7" t="n">
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AMF20" s="1"/>
-      <c r="AMG20" s="0"/>
-      <c r="AMH20" s="0"/>
-      <c r="AMI20" s="0"/>
-      <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="n">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="20" t="s">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="7" t="s">
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7" t="s">
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7" t="s">
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7" t="s">
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD21" s="18" t="n">
+      <c r="AD21" s="19" t="n">
         <v>0.0099892</v>
       </c>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7" t="n">
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ21" s="7" t="n">
+      <c r="AJ21" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7" t="n">
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AM21" s="0"/>
@@ -20530,70 +20551,73 @@
       <c r="AMC21" s="0"/>
       <c r="AMD21" s="0"/>
       <c r="AME21" s="0"/>
+      <c r="AMF21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7" t="s">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7" t="n">
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ22" s="7" t="n">
+      <c r="AJ22" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="AK22" s="7" t="n">
+      <c r="AK22" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="AL22" s="7"/>
+      <c r="AL22" s="8" t="n">
+        <v>300</v>
+      </c>
       <c r="AM22" s="0"/>
       <c r="AN22" s="0"/>
       <c r="AO22" s="0"/>
@@ -21577,83 +21601,83 @@
       <c r="AME22" s="0"/>
       <c r="AMF22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="n">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="17" t="s">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7" t="s">
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7" t="s">
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7" t="s">
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7" t="s">
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD23" s="18" t="n">
+      <c r="AD23" s="19" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7" t="n">
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ23" s="7" t="n">
+      <c r="AJ23" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7" t="n">
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8" t="n">
         <v>15</v>
       </c>
       <c r="AM23" s="0"/>
@@ -22639,69 +22663,71 @@
       <c r="AME23" s="0"/>
       <c r="AMF23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7" t="s">
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7" t="n">
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ24" s="7" t="n">
+      <c r="AJ24" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="AK24" s="16" t="s">
+      <c r="AK24" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="AL24" s="7"/>
+      <c r="AL24" s="8" t="n">
+        <v>300</v>
+      </c>
       <c r="AM24" s="0"/>
       <c r="AN24" s="0"/>
       <c r="AO24" s="0"/>
@@ -23685,83 +23711,83 @@
       <c r="AME24" s="0"/>
       <c r="AMF24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="n">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="17" t="s">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7" t="s">
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R25" s="7" t="s">
+      <c r="R25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7" t="s">
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7" t="s">
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7" t="s">
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD25" s="18" t="n">
+      <c r="AD25" s="19" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7" t="n">
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ25" s="7" t="n">
+      <c r="AJ25" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7" t="n">
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8" t="n">
         <v>17</v>
       </c>
       <c r="AM25" s="0"/>
@@ -24747,83 +24773,83 @@
       <c r="AME25" s="0"/>
       <c r="AMF25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="n">
+      <c r="I26" s="8"/>
+      <c r="J26" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="17" t="s">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7" t="s">
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R26" s="7" t="s">
+      <c r="R26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7" t="s">
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7" t="s">
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7" t="s">
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD26" s="18" t="n">
+      <c r="AD26" s="19" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7" t="n">
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ26" s="7" t="n">
+      <c r="AJ26" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7" t="n">
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8" t="n">
         <v>17</v>
       </c>
       <c r="AM26" s="0"/>
@@ -25809,69 +25835,71 @@
       <c r="AME26" s="0"/>
       <c r="AMF26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7" t="s">
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7" t="n">
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ27" s="7" t="n">
+      <c r="AJ27" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="AK27" s="16" t="s">
+      <c r="AK27" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="AL27" s="7"/>
+      <c r="AL27" s="8" t="n">
+        <v>300</v>
+      </c>
       <c r="AM27" s="0"/>
       <c r="AN27" s="0"/>
       <c r="AO27" s="0"/>
@@ -26855,168 +26883,164 @@
       <c r="AME27" s="0"/>
       <c r="AMF27" s="0"/>
     </row>
-    <row r="28" s="12" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+    <row r="28" s="13" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="n">
+      <c r="I28" s="8"/>
+      <c r="J28" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7" t="s">
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="7" t="s">
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R28" s="7" t="s">
+      <c r="R28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7" t="s">
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7" t="s">
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7" t="s">
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD28" s="18" t="n">
+      <c r="AD28" s="19" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7" t="n">
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ28" s="7" t="n">
+      <c r="AJ28" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="AK28" s="7"/>
-      <c r="AL28" s="7" t="n">
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8" t="n">
         <v>20</v>
       </c>
       <c r="AMF28" s="1"/>
-      <c r="AMG28" s="0"/>
-      <c r="AMH28" s="0"/>
-      <c r="AMI28" s="0"/>
-      <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7" t="n">
+      <c r="I29" s="8"/>
+      <c r="J29" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7" t="s">
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="7" t="s">
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7" t="s">
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7" t="s">
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7" t="s">
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD29" s="18" t="n">
+      <c r="AD29" s="19" t="n">
         <v>0.0100073</v>
       </c>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7" t="n">
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ29" s="7" t="n">
+      <c r="AJ29" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7" t="n">
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8" t="n">
         <v>20</v>
       </c>
       <c r="AM29" s="0"/>
@@ -28000,70 +28024,73 @@
       <c r="AMC29" s="0"/>
       <c r="AMD29" s="0"/>
       <c r="AME29" s="0"/>
+      <c r="AMF29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7" t="s">
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7" t="n">
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ30" s="7" t="n">
+      <c r="AJ30" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="AK30" s="16" t="s">
+      <c r="AK30" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="AL30" s="7"/>
+      <c r="AL30" s="8" t="n">
+        <v>300</v>
+      </c>
       <c r="AM30" s="0"/>
       <c r="AN30" s="0"/>
       <c r="AO30" s="0"/>
@@ -29047,83 +29074,83 @@
       <c r="AME30" s="0"/>
       <c r="AMF30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="n">
+      <c r="I31" s="8"/>
+      <c r="J31" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7" t="s">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="N31" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7" t="s">
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R31" s="7" t="s">
+      <c r="R31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7" t="s">
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7" t="s">
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7" t="s">
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD31" s="23" t="n">
+      <c r="AD31" s="24" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7" t="n">
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ31" s="7" t="n">
+      <c r="AJ31" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7" t="n">
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM31" s="0"/>
@@ -30109,83 +30136,83 @@
       <c r="AME31" s="0"/>
       <c r="AMF31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="n">
+      <c r="I32" s="8"/>
+      <c r="J32" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7" t="s">
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N32" s="10" t="s">
+      <c r="N32" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7" t="s">
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="R32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7" t="s">
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7" t="s">
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7" t="s">
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD32" s="23" t="n">
+      <c r="AD32" s="24" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7" t="n">
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ32" s="7" t="n">
+      <c r="AJ32" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7" t="n">
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM32" s="0"/>
@@ -31171,83 +31198,83 @@
       <c r="AME32" s="0"/>
       <c r="AMF32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7" t="n">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7" t="s">
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="N33" s="10" t="s">
+      <c r="N33" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7" t="s">
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R33" s="7" t="s">
+      <c r="R33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7" t="s">
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7" t="s">
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7" t="s">
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD33" s="23" t="n">
+      <c r="AD33" s="24" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7" t="n">
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ33" s="7" t="n">
+      <c r="AJ33" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7" t="n">
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM33" s="0"/>
@@ -32233,83 +32260,83 @@
       <c r="AME33" s="0"/>
       <c r="AMF33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="n">
+      <c r="I34" s="8"/>
+      <c r="J34" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7" t="s">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="N34" s="10" t="s">
+      <c r="N34" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7" t="s">
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R34" s="7" t="s">
+      <c r="R34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7" t="s">
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7" t="s">
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7" t="s">
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD34" s="23" t="n">
+      <c r="AD34" s="24" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7" t="n">
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ34" s="7" t="n">
+      <c r="AJ34" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="7" t="n">
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM34" s="0"/>
@@ -33295,83 +33322,83 @@
       <c r="AME34" s="0"/>
       <c r="AMF34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7" t="n">
+      <c r="I35" s="8"/>
+      <c r="J35" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="22" t="s">
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="N35" s="10" t="s">
+      <c r="N35" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7" t="s">
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R35" s="7" t="s">
+      <c r="R35" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7" t="s">
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7" t="s">
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7" t="s">
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD35" s="23" t="n">
+      <c r="AD35" s="24" t="n">
         <v>0.0209993</v>
       </c>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7" t="n">
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ35" s="7" t="n">
+      <c r="AJ35" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7" t="n">
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM35" s="0"/>
@@ -34357,83 +34384,83 @@
       <c r="AME35" s="0"/>
       <c r="AMF35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7" t="n">
+      <c r="I36" s="8"/>
+      <c r="J36" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7" t="s">
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="N36" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7" t="s">
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R36" s="7" t="s">
+      <c r="R36" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7" t="s">
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7" t="s">
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7" t="s">
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD36" s="23" t="n">
+      <c r="AD36" s="24" t="n">
         <v>0.0100073</v>
       </c>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="7" t="n">
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ36" s="7" t="n">
+      <c r="AJ36" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="7" t="n">
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM36" s="0"/>
@@ -35419,166 +35446,162 @@
       <c r="AME36" s="0"/>
       <c r="AMF36" s="0"/>
     </row>
-    <row r="37" s="12" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+    <row r="37" s="13" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7" t="n">
+      <c r="I37" s="8"/>
+      <c r="J37" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7" t="s">
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="N37" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="7" t="s">
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R37" s="7" t="s">
+      <c r="R37" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7" t="s">
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7" t="s">
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="7" t="s">
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD37" s="23" t="n">
+      <c r="AD37" s="24" t="n">
         <v>0.0100073</v>
       </c>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="7"/>
-      <c r="AI37" s="7"/>
-      <c r="AJ37" s="7" t="n">
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="AK37" s="7"/>
-      <c r="AL37" s="7" t="n">
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AMF37" s="1"/>
-      <c r="AMG37" s="0"/>
-      <c r="AMH37" s="0"/>
-      <c r="AMI37" s="0"/>
-      <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7" t="n">
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7" t="s">
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="N38" s="10" t="s">
+      <c r="N38" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7" t="s">
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7" t="s">
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7" t="s">
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7" t="s">
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD38" s="23" t="n">
+      <c r="AD38" s="24" t="n">
         <v>0.0099844</v>
       </c>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="7" t="n">
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ38" s="7" t="n">
+      <c r="AJ38" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="AK38" s="7"/>
-      <c r="AL38" s="7" t="n">
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8" t="n">
         <v>23</v>
       </c>
       <c r="AM38" s="0"/>
@@ -36564,77 +36587,79 @@
       <c r="AME38" s="0"/>
       <c r="AMF38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="n">
+      <c r="I39" s="8"/>
+      <c r="J39" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="7" t="s">
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7" t="s">
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7" t="s">
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD39" s="25" t="n">
+      <c r="AD39" s="26" t="n">
         <v>0.15</v>
       </c>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7" t="n">
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ39" s="7" t="n">
+      <c r="AJ39" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="AK39" s="16" t="s">
+      <c r="AK39" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="AL39" s="22"/>
+      <c r="AL39" s="23" t="n">
+        <v>303</v>
+      </c>
       <c r="AM39" s="0"/>
       <c r="AN39" s="0"/>
       <c r="AO39" s="0"/>
@@ -37618,81 +37643,81 @@
       <c r="AME39" s="0"/>
       <c r="AMF39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7" t="n">
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7" t="s">
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="N40" s="10" t="s">
+      <c r="N40" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="7" t="s">
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R40" s="7" t="s">
+      <c r="R40" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7" t="s">
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7" t="s">
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD40" s="25" t="n">
+      <c r="AD40" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="7" t="n">
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ40" s="7" t="n">
+      <c r="AJ40" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7" t="n">
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8" t="n">
         <v>32</v>
       </c>
       <c r="AM40" s="0"/>
@@ -38678,77 +38703,77 @@
       <c r="AME40" s="0"/>
       <c r="AMF40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7" t="n">
+      <c r="I41" s="8"/>
+      <c r="J41" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="7" t="s">
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7" t="s">
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="7" t="s">
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD41" s="25" t="n">
+      <c r="AD41" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="7" t="n">
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ41" s="7" t="n">
+      <c r="AJ41" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="AK41" s="7" t="n">
+      <c r="AK41" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="AL41" s="7" t="n">
+      <c r="AL41" s="8" t="n">
         <v>32</v>
       </c>
       <c r="AM41" s="0"/>
@@ -39734,81 +39759,81 @@
       <c r="AME41" s="0"/>
       <c r="AMF41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7" t="s">
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="N42" s="10" t="n">
+      <c r="N42" s="11" t="n">
         <v>4607042434877</v>
       </c>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="7" t="s">
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R42" s="7" t="s">
+      <c r="R42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7" t="s">
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7" t="s">
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD42" s="25" t="n">
+      <c r="AD42" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="7"/>
-      <c r="AH42" s="7" t="s">
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="AI42" s="7" t="n">
+      <c r="AI42" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AJ42" s="7" t="n">
+      <c r="AJ42" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="AK42" s="7"/>
-      <c r="AL42" s="7" t="n">
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8" t="n">
         <v>34</v>
       </c>
       <c r="AM42" s="0"/>
@@ -40794,75 +40819,77 @@
       <c r="AME42" s="0"/>
       <c r="AMF42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="7" t="s">
+      <c r="I43" s="8"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
-      <c r="AC43" s="7" t="s">
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="AD43" s="25" t="n">
+      <c r="AD43" s="26" t="n">
         <v>0.24</v>
       </c>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="7"/>
-      <c r="AH43" s="7" t="s">
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AI43" s="7" t="n">
+      <c r="AI43" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ43" s="7" t="n">
+      <c r="AJ43" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="AK43" s="16" t="s">
+      <c r="AK43" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="AL43" s="7"/>
+      <c r="AL43" s="8" t="n">
+        <v>311</v>
+      </c>
       <c r="AM43" s="0"/>
       <c r="AN43" s="0"/>
       <c r="AO43" s="0"/>
@@ -41846,87 +41873,87 @@
       <c r="AME43" s="0"/>
       <c r="AMF43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7" t="n">
+      <c r="I44" s="8"/>
+      <c r="J44" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="K44" s="7" t="n">
+      <c r="K44" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7" t="s">
+      <c r="L44" s="8"/>
+      <c r="M44" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N44" s="10" t="s">
+      <c r="N44" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7" t="s">
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7" t="s">
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7" t="s">
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7" t="s">
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD44" s="25" t="n">
+      <c r="AD44" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="7" t="s">
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="AH44" s="7" t="s">
+      <c r="AH44" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AI44" s="7" t="n">
+      <c r="AI44" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ44" s="7" t="n">
+      <c r="AJ44" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="AK44" s="7"/>
-      <c r="AL44" s="7" t="n">
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8" t="n">
         <v>36</v>
       </c>
       <c r="AM44" s="0"/>
@@ -42912,87 +42939,87 @@
       <c r="AME44" s="0"/>
       <c r="AMF44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7" t="n">
+      <c r="I45" s="8"/>
+      <c r="J45" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="K45" s="7" t="n">
+      <c r="K45" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7" t="s">
+      <c r="L45" s="8"/>
+      <c r="M45" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N45" s="10" t="s">
+      <c r="N45" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7" t="s">
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7" t="s">
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X45" s="7" t="s">
+      <c r="X45" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="7" t="s">
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD45" s="25" t="n">
+      <c r="AD45" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7" t="s">
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="AH45" s="7" t="s">
+      <c r="AH45" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AI45" s="7" t="n">
+      <c r="AI45" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ45" s="7" t="n">
+      <c r="AJ45" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="AK45" s="7"/>
-      <c r="AL45" s="7" t="n">
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8" t="n">
         <v>36</v>
       </c>
       <c r="AM45" s="0"/>
@@ -43978,79 +44005,79 @@
       <c r="AME45" s="0"/>
       <c r="AMF45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7" t="n">
+      <c r="I46" s="8"/>
+      <c r="J46" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7" t="s">
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="N46" s="10" t="s">
+      <c r="N46" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7" t="s">
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7" t="s">
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="7" t="s">
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD46" s="25" t="n">
+      <c r="AD46" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="7"/>
-      <c r="AH46" s="7"/>
-      <c r="AI46" s="7" t="n">
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ46" s="7" t="n">
+      <c r="AJ46" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="AK46" s="7"/>
-      <c r="AL46" s="7" t="n">
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8" t="n">
         <v>36</v>
       </c>
       <c r="AM46" s="0"/>
@@ -45036,84 +45063,84 @@
       <c r="AME46" s="0"/>
       <c r="AMF46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="I47" s="22"/>
-      <c r="J47" s="7" t="n">
+      <c r="I47" s="23"/>
+      <c r="J47" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7" t="s">
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7" t="s">
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7" t="s">
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="X47" s="7" t="s">
+      <c r="X47" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-      <c r="AC47" s="7" t="s">
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD47" s="25" t="n">
+      <c r="AD47" s="26" t="n">
         <v>0.04</v>
       </c>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="7" t="s">
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="AH47" s="7" t="s">
+      <c r="AH47" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="AI47" s="7" t="n">
+      <c r="AI47" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ47" s="7" t="n">
+      <c r="AJ47" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="AK47" s="7"/>
-      <c r="AL47" s="7" t="n">
-        <v>50</v>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8" t="n">
+        <v>312</v>
       </c>
       <c r="AM47" s="0"/>
       <c r="AN47" s="0"/>
@@ -46098,86 +46125,86 @@
       <c r="AME47" s="0"/>
       <c r="AMF47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="n">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7" t="n">
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L48" s="7" t="n">
+      <c r="L48" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="M48" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N48" s="10" t="s">
+      <c r="N48" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7" t="s">
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7" t="s">
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="7" t="s">
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD48" s="25" t="n">
+      <c r="AD48" s="26" t="n">
         <v>0.04</v>
       </c>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="7"/>
-      <c r="AG48" s="7" t="s">
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="AH48" s="7" t="s">
+      <c r="AH48" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="AI48" s="7" t="n">
+      <c r="AI48" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ48" s="7" t="n">
+      <c r="AJ48" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="AK48" s="7"/>
-      <c r="AL48" s="7" t="n">
-        <v>50</v>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8" t="n">
+        <v>312</v>
       </c>
       <c r="AM48" s="0"/>
       <c r="AN48" s="0"/>
@@ -47162,84 +47189,84 @@
       <c r="AME48" s="0"/>
       <c r="AMF48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="n">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="7" t="s">
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7" t="s">
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
-      <c r="AC49" s="7" t="s">
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="AD49" s="27" t="n">
+      <c r="AD49" s="28" t="n">
         <v>0.04</v>
       </c>
-      <c r="AE49" s="7" t="n">
+      <c r="AE49" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="AF49" s="7" t="n">
+      <c r="AF49" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AG49" s="7" t="s">
+      <c r="AG49" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="AH49" s="7" t="s">
+      <c r="AH49" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AI49" s="7" t="n">
+      <c r="AI49" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AJ49" s="7" t="n">
+      <c r="AJ49" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="AK49" s="16" t="s">
+      <c r="AK49" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="AL49" s="7" t="n">
-        <v>50</v>
+      <c r="AL49" s="8" t="n">
+        <v>312</v>
       </c>
       <c r="AM49" s="0"/>
       <c r="AN49" s="0"/>
@@ -48224,840 +48251,828 @@
       <c r="AME49" s="0"/>
       <c r="AMF49" s="0"/>
     </row>
-    <row r="50" s="12" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="n">
+    <row r="50" s="13" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="n">
         <v>43</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7" t="s">
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="7" t="s">
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7" t="s">
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="7" t="s">
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD50" s="27" t="n">
+      <c r="AD50" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="7" t="s">
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7" t="n">
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ50" s="7" t="n">
+      <c r="AJ50" s="8" t="n">
         <v>43</v>
       </c>
-      <c r="AK50" s="7" t="n">
+      <c r="AK50" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="AL50" s="7" t="n">
+      <c r="AL50" s="8" t="n">
         <v>42</v>
       </c>
       <c r="AMF50" s="1"/>
-      <c r="AMG50" s="0"/>
-      <c r="AMH50" s="0"/>
-      <c r="AMI50" s="0"/>
-      <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="n">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7" t="s">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7" t="n">
+      <c r="I51" s="8"/>
+      <c r="J51" s="8" t="n">
         <v>0.4</v>
       </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7" t="s">
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="N51" s="10" t="s">
+      <c r="N51" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10" t="s">
+      <c r="O51" s="11"/>
+      <c r="P51" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="Q51" s="7" t="s">
+      <c r="Q51" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7" t="s">
+      <c r="R51" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X51" s="7" t="s">
+      <c r="X51" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD51" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ51" s="8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD52" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ52" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK52" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL52" s="8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R53" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
-      <c r="AC51" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD51" s="27" t="n">
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="X53" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD53" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
-      <c r="AG51" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH51" s="7"/>
-      <c r="AI51" s="7" t="n">
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AJ51" s="7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK51" s="7"/>
-      <c r="AL51" s="7" t="n">
-        <v>43</v>
+      <c r="AJ53" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8" t="n">
+        <v>45</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="n">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R54" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="X54" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD54" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ54" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B52" s="7" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C55" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D55" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7" t="n">
+      <c r="E55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7" t="s">
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R55" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD52" s="27" t="n">
+      <c r="X55" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD55" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="7" t="n">
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AJ52" s="7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK52" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="AL52" s="7" t="n">
+      <c r="AJ55" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="n">
-        <v>46</v>
-      </c>
-      <c r="B53" s="7" t="s">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C56" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D56" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="N53" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R53" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7" t="s">
+      <c r="E56" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X53" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC53" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD53" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH53" s="7"/>
-      <c r="AI53" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ53" s="7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK53" s="7"/>
-      <c r="AL53" s="7" t="n">
-        <v>45</v>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD56" s="28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH56" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI56" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ56" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8" t="n">
+        <v>312</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="n">
-        <v>47</v>
-      </c>
-      <c r="B54" s="7" t="s">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C57" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="N54" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R54" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7" t="s">
+      <c r="D57" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="26"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK57" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL57" s="8"/>
+    </row>
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X54" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC54" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD54" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="7"/>
-      <c r="AF54" s="7"/>
-      <c r="AG54" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH54" s="7"/>
-      <c r="AI54" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ54" s="7" t="n">
-        <v>47</v>
-      </c>
-      <c r="AK54" s="7"/>
-      <c r="AL54" s="7" t="n">
-        <v>45</v>
-      </c>
+      <c r="X58" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="n">
-        <v>48</v>
-      </c>
-      <c r="B55" s="7" t="s">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="N55" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R55" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="X55" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD55" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="7"/>
-      <c r="AF55" s="7"/>
-      <c r="AG55" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH55" s="7"/>
-      <c r="AI55" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ55" s="7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK55" s="7"/>
-      <c r="AL55" s="7" t="n">
-        <v>42</v>
-      </c>
+      <c r="D59" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="16"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="B56" s="7" t="s">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C60" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
-      <c r="AC56" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD56" s="27" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
-      <c r="AG56" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH56" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI56" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ56" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="AK56" s="7"/>
-      <c r="AL56" s="7" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="D60" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E57" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="7"/>
-      <c r="AH57" s="7"/>
-      <c r="AI57" s="7"/>
-      <c r="AJ57" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK57" s="16" t="s">
+      <c r="E60" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="16"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8" t="n">
         <v>54</v>
       </c>
-      <c r="AL57" s="7"/>
-    </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="n">
-        <v>51</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="X58" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="7"/>
-      <c r="AD58" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="7"/>
-      <c r="AF58" s="7"/>
-      <c r="AG58" s="7"/>
-      <c r="AH58" s="7"/>
-      <c r="AI58" s="7"/>
-      <c r="AJ58" s="7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK58" s="7"/>
-      <c r="AL58" s="7"/>
-    </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="n">
-        <v>52</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
-      <c r="AD59" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="7"/>
-      <c r="AF59" s="7"/>
-      <c r="AG59" s="7"/>
-      <c r="AH59" s="7"/>
-      <c r="AI59" s="7"/>
-      <c r="AJ59" s="7" t="n">
-        <v>52</v>
-      </c>
-      <c r="AK59" s="7"/>
-      <c r="AL59" s="7"/>
-    </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="n">
-        <v>54</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="7"/>
-      <c r="AB60" s="7"/>
-      <c r="AC60" s="7"/>
-      <c r="AD60" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="7"/>
-      <c r="AF60" s="7"/>
-      <c r="AG60" s="7"/>
-      <c r="AH60" s="7"/>
-      <c r="AI60" s="7"/>
-      <c r="AJ60" s="7" t="n">
-        <v>54</v>
-      </c>
-      <c r="AK60" s="7"/>
-      <c r="AL60" s="7"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL60"/>
+  <autoFilter ref="A1:AME66"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AME$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AME$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AME$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AME$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1032,8 +1033,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579D1C"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1263,7 +1264,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -1276,7 +1277,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1304,45 +1305,45 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="G23" activeCellId="2" sqref="F52:G54 G57 G23"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.1983805668016"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="88.3724696356275"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="79.3765182186235"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="89.1214574898785"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="80.0161943319838"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="273">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">number of facings</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000054227</t>
+    <t xml:space="preserve">5449000054227, 5449000228970</t>
   </si>
   <si>
     <t xml:space="preserve">OR</t>
@@ -280,7 +280,7 @@
     <t xml:space="preserve">Фанта Апельсин - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000006271</t>
+    <t xml:space="preserve">5449000006271, 5449000006271</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite - 1L</t>
@@ -289,7 +289,7 @@
     <t xml:space="preserve">Спрайт - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000050939</t>
+    <t xml:space="preserve">5449000050939, 5449000228956</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Orange - 0.5L</t>
@@ -425,10 +425,13 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Berry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">5449000193124, 5449000259455</t>
@@ -692,7 +695,7 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">number of SKUs/Number of cooler Doors</t>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
@@ -808,7 +811,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
   </si>
   <si>
-    <t xml:space="preserve">number of facings every TCC SKUs on Scenes</t>
+    <t xml:space="preserve">each SKU hits facings target</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: w/o other products</t>
@@ -1018,14 +1021,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1088,7 +1091,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1160,6 +1163,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1235,7 +1242,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1246,7 +1253,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1284,52 +1291,53 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.0931174089069"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="78.6234817813765"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6518218623482"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="43.8056680161943"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.5506072874494"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.3238866396761"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="26.6356275303644"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.8663967611336"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="44.5910931174089"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.2226720647773"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="24.9028340080972"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="86.8016194331984"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="77.9838056680162"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1455,7 @@
       <c r="AME1" s="6"/>
       <c r="AMF1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>56</v>
       </c>
@@ -1509,7 +1517,7 @@
       <c r="AME2" s="13"/>
       <c r="AMF2" s="13"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>58</v>
       </c>
@@ -1570,7 +1578,7 @@
       <c r="AL3" s="11"/>
       <c r="AMF3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>60</v>
       </c>
@@ -1633,7 +1641,7 @@
       </c>
       <c r="AMF4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>62</v>
       </c>
@@ -1694,7 +1702,7 @@
       <c r="AL5" s="11"/>
       <c r="AMF5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>64</v>
       </c>
@@ -1757,7 +1765,7 @@
       </c>
       <c r="AMF6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>66</v>
       </c>
@@ -1820,7 +1828,7 @@
       </c>
       <c r="AMF7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>1</v>
       </c>
@@ -1887,7 +1895,7 @@
       </c>
       <c r="AMF8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>2</v>
       </c>
@@ -1921,7 +1929,7 @@
       <c r="M9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="18" t="s">
         <v>63</v>
       </c>
       <c r="O9" s="11"/>
@@ -1968,7 +1976,7 @@
       </c>
       <c r="AMF9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>3</v>
       </c>
@@ -2049,7 +2057,7 @@
       </c>
       <c r="AMF10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>4</v>
       </c>
@@ -2130,7 +2138,7 @@
       </c>
       <c r="AMF11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>5</v>
       </c>
@@ -2164,7 +2172,7 @@
       <c r="M12" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="18" t="s">
         <v>77</v>
       </c>
       <c r="O12" s="11"/>
@@ -2211,7 +2219,7 @@
       </c>
       <c r="AMF12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>6</v>
       </c>
@@ -2245,7 +2253,7 @@
       <c r="M13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="18" t="s">
         <v>80</v>
       </c>
       <c r="O13" s="11"/>
@@ -2292,7 +2300,7 @@
       </c>
       <c r="AMF13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>7</v>
       </c>
@@ -2373,7 +2381,7 @@
       </c>
       <c r="AMF14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>8</v>
       </c>
@@ -2454,7 +2462,7 @@
       </c>
       <c r="AMF15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>9</v>
       </c>
@@ -2473,7 +2481,7 @@
       <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="19" t="s">
         <v>88</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -2533,7 +2541,7 @@
       </c>
       <c r="AMF16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>10</v>
       </c>
@@ -2552,7 +2560,7 @@
       <c r="F17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="19" t="s">
         <v>92</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -2614,7 +2622,7 @@
       </c>
       <c r="AMF17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>11</v>
       </c>
@@ -2633,7 +2641,7 @@
       <c r="F18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="19" t="s">
         <v>95</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -2695,7 +2703,7 @@
       </c>
       <c r="AMF18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>12</v>
       </c>
@@ -2776,7 +2784,7 @@
       </c>
       <c r="AMF19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>13</v>
       </c>
@@ -2857,7 +2865,7 @@
       </c>
       <c r="AMF20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>14</v>
       </c>
@@ -2873,10 +2881,10 @@
       <c r="E21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="21" t="s">
         <v>104</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -2888,10 +2896,10 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="21" t="s">
         <v>105</v>
       </c>
       <c r="O21" s="11"/>
@@ -2938,7 +2946,7 @@
       </c>
       <c r="AMF21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>15</v>
       </c>
@@ -3005,7 +3013,7 @@
       </c>
       <c r="AMF22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>16</v>
       </c>
@@ -3086,7 +3094,7 @@
       </c>
       <c r="AMF23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>17</v>
       </c>
@@ -3153,7 +3161,7 @@
       </c>
       <c r="AMF24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>18</v>
       </c>
@@ -3234,7 +3242,7 @@
       </c>
       <c r="AMF25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>19</v>
       </c>
@@ -3315,7 +3323,7 @@
       </c>
       <c r="AMF26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>20</v>
       </c>
@@ -3351,7 +3359,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="21"/>
+      <c r="T27" s="22"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
@@ -3382,7 +3390,7 @@
       </c>
       <c r="AMF27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>21</v>
       </c>
@@ -3414,10 +3422,10 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="N28" s="22" t="s">
         <v>126</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
@@ -3463,7 +3471,7 @@
       </c>
       <c r="AMF28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>22</v>
       </c>
@@ -3480,10 +3488,10 @@
         <v>106</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>62</v>
@@ -3495,10 +3503,10 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
@@ -3544,7 +3552,7 @@
       </c>
       <c r="AMF29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>23</v>
       </c>
@@ -3561,10 +3569,10 @@
         <v>106</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>58</v>
@@ -3604,14 +3612,14 @@
         <v>23</v>
       </c>
       <c r="AK30" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL30" s="7" t="n">
         <v>300</v>
       </c>
       <c r="AMF30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>24</v>
       </c>
@@ -3628,10 +3636,10 @@
         <v>106</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>62</v>
@@ -3643,10 +3651,10 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -3692,7 +3700,7 @@
       </c>
       <c r="AMF31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>25</v>
       </c>
@@ -3709,10 +3717,10 @@
         <v>106</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>62</v>
@@ -3724,10 +3732,10 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -3773,7 +3781,7 @@
       </c>
       <c r="AMF32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>26</v>
       </c>
@@ -3790,10 +3798,10 @@
         <v>106</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>62</v>
@@ -3805,10 +3813,10 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -3854,7 +3862,7 @@
       </c>
       <c r="AMF33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>27</v>
       </c>
@@ -3871,10 +3879,10 @@
         <v>106</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>62</v>
@@ -3886,10 +3894,10 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -3935,7 +3943,7 @@
       </c>
       <c r="AMF34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>28</v>
       </c>
@@ -3951,11 +3959,11 @@
       <c r="E35" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>145</v>
+      <c r="F35" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>62</v>
@@ -3966,11 +3974,11 @@
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="21" t="s">
-        <v>145</v>
+      <c r="M35" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -4016,7 +4024,7 @@
       </c>
       <c r="AMF35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>29</v>
       </c>
@@ -4033,10 +4041,10 @@
         <v>106</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>62</v>
@@ -4048,10 +4056,10 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
@@ -4097,7 +4105,7 @@
       </c>
       <c r="AMF36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>30</v>
       </c>
@@ -4114,10 +4122,10 @@
         <v>106</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>62</v>
@@ -4129,10 +4137,10 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
@@ -4162,7 +4170,7 @@
       <c r="AD37" s="9" t="n">
         <v>0.010007</v>
       </c>
-      <c r="AE37" s="21"/>
+      <c r="AE37" s="22"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
@@ -4178,7 +4186,7 @@
       </c>
       <c r="AMF37" s="13"/>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
         <v>31</v>
       </c>
@@ -4195,10 +4203,10 @@
         <v>106</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>62</v>
@@ -4210,10 +4218,10 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -4259,7 +4267,7 @@
       </c>
       <c r="AMF38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>32</v>
       </c>
@@ -4273,16 +4281,16 @@
         <v>40</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="n">
@@ -4300,10 +4308,10 @@
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
-      <c r="U39" s="23"/>
+      <c r="U39" s="24"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
@@ -4327,14 +4335,14 @@
         <v>32</v>
       </c>
       <c r="AK39" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL39" s="21" t="n">
+        <v>163</v>
+      </c>
+      <c r="AL39" s="22" t="n">
         <v>303</v>
       </c>
       <c r="AMF39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>33</v>
       </c>
@@ -4348,13 +4356,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>62</v>
@@ -4366,10 +4374,10 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
@@ -4377,14 +4385,14 @@
         <v>64</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="23"/>
+      <c r="U40" s="24"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
@@ -4411,7 +4419,7 @@
       </c>
       <c r="AMF40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>34</v>
       </c>
@@ -4425,16 +4433,16 @@
         <v>40</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="n">
@@ -4452,10 +4460,10 @@
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
-      <c r="U41" s="23"/>
+      <c r="U41" s="24"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
@@ -4484,7 +4492,7 @@
       </c>
       <c r="AMF41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>35</v>
       </c>
@@ -4498,23 +4506,23 @@
         <v>40</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N42" s="11" t="n">
         <v>4607042434877</v>
@@ -4529,10 +4537,10 @@
       </c>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
-      <c r="U42" s="23"/>
+      <c r="U42" s="24"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
@@ -4547,7 +4555,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AI42" s="7" t="n">
         <v>4</v>
@@ -4561,7 +4569,7 @@
       </c>
       <c r="AMF42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>36</v>
       </c>
@@ -4575,19 +4583,19 @@
         <v>40</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I43" s="7"/>
-      <c r="J43" s="21"/>
+      <c r="J43" s="22"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -4595,7 +4603,7 @@
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
@@ -4609,7 +4617,7 @@
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD43" s="9" t="n">
         <v>0.24</v>
@@ -4618,7 +4626,7 @@
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AI43" s="7" t="n">
         <v>2</v>
@@ -4627,14 +4635,14 @@
         <v>36</v>
       </c>
       <c r="AK43" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL43" s="7" t="n">
         <v>311</v>
       </c>
       <c r="AMF43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>37</v>
       </c>
@@ -4648,16 +4656,16 @@
         <v>40</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="n">
@@ -4668,27 +4676,27 @@
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
       <c r="W44" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X44" s="7"/>
       <c r="Y44" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
@@ -4700,10 +4708,10 @@
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
       <c r="AG44" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AH44" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AI44" s="7" t="n">
         <v>3</v>
@@ -4717,7 +4725,7 @@
       </c>
       <c r="AMF44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>38</v>
       </c>
@@ -4731,16 +4739,16 @@
         <v>40</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="n">
@@ -4751,26 +4759,26 @@
       </c>
       <c r="L45" s="7"/>
       <c r="M45" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X45" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
@@ -4783,10 +4791,10 @@
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AH45" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AI45" s="7" t="n">
         <v>3</v>
@@ -4800,7 +4808,7 @@
       </c>
       <c r="AMF45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
         <v>39</v>
       </c>
@@ -4814,16 +4822,16 @@
         <v>40</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="n">
@@ -4832,23 +4840,23 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
@@ -4875,7 +4883,7 @@
       </c>
       <c r="AMF46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
         <v>40</v>
       </c>
@@ -4889,18 +4897,18 @@
         <v>40</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I47" s="21"/>
+        <v>204</v>
+      </c>
+      <c r="I47" s="22"/>
       <c r="J47" s="7" t="n">
         <v>1</v>
       </c>
@@ -4908,13 +4916,13 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -4924,7 +4932,7 @@
         <v>90</v>
       </c>
       <c r="X47" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
@@ -4939,10 +4947,10 @@
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
       <c r="AG47" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AH47" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AI47" s="7" t="n">
         <v>2</v>
@@ -4956,7 +4964,7 @@
       </c>
       <c r="AMF47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>41</v>
       </c>
@@ -4970,16 +4978,16 @@
         <v>40</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H48" s="24" t="s">
         <v>209</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>210</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -4990,10 +4998,10 @@
         <v>15</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -5004,11 +5012,11 @@
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X48" s="7"/>
       <c r="Y48" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
@@ -5022,10 +5030,10 @@
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AH48" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI48" s="7" t="n">
         <v>2</v>
@@ -5039,7 +5047,7 @@
       </c>
       <c r="AMF48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>42</v>
       </c>
@@ -5053,13 +5061,13 @@
         <v>40</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>58</v>
@@ -5073,7 +5081,7 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
@@ -5081,7 +5089,7 @@
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
       <c r="W49" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
@@ -5089,7 +5097,7 @@
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
       <c r="AC49" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD49" s="9" t="n">
         <v>0.04</v>
@@ -5101,10 +5109,10 @@
         <v>1</v>
       </c>
       <c r="AG49" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AH49" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI49" s="7" t="n">
         <v>2</v>
@@ -5113,14 +5121,14 @@
         <v>42</v>
       </c>
       <c r="AK49" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL49" s="7" t="n">
         <v>312</v>
       </c>
       <c r="AMF49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>43</v>
       </c>
@@ -5135,10 +5143,10 @@
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>58</v>
@@ -5160,7 +5168,7 @@
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
@@ -5171,10 +5179,10 @@
         <v>68</v>
       </c>
       <c r="AD50" s="9"/>
-      <c r="AE50" s="25"/>
+      <c r="AE50" s="26"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AH50" s="7"/>
       <c r="AI50" s="7" t="n">
@@ -5191,7 +5199,7 @@
       </c>
       <c r="AMF50" s="13"/>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
         <v>44</v>
       </c>
@@ -5206,13 +5214,13 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7" t="n">
@@ -5221,43 +5229,43 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O51" s="11"/>
       <c r="P51" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q51" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R51" s="26" t="s">
-        <v>225</v>
+      <c r="R51" s="27" t="s">
+        <v>226</v>
       </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
       <c r="W51" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X51" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
       <c r="AC51" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD51" s="9"/>
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AH51" s="7"/>
       <c r="AI51" s="7" t="n">
@@ -5271,7 +5279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>45</v>
       </c>
@@ -5286,13 +5294,13 @@
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7" t="n">
@@ -5305,7 +5313,7 @@
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -5313,7 +5321,7 @@
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
@@ -5321,13 +5329,13 @@
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
       <c r="AC52" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD52" s="9"/>
       <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
       <c r="AG52" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AH52" s="7"/>
       <c r="AI52" s="7" t="n">
@@ -5337,13 +5345,13 @@
         <v>45</v>
       </c>
       <c r="AK52" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL52" s="7" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>46</v>
       </c>
@@ -5358,10 +5366,10 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>62</v>
@@ -5373,36 +5381,36 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O53" s="11"/>
       <c r="P53" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R53" s="26" t="s">
-        <v>225</v>
+      <c r="R53" s="27" t="s">
+        <v>226</v>
       </c>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
       <c r="W53" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X53" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
       <c r="AB53" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC53" s="7" t="s">
         <v>68</v>
@@ -5411,7 +5419,7 @@
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AH53" s="7"/>
       <c r="AI53" s="7" t="n">
@@ -5425,7 +5433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
         <v>47</v>
       </c>
@@ -5440,10 +5448,10 @@
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>62</v>
@@ -5455,36 +5463,36 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O54" s="11"/>
       <c r="P54" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q54" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R54" s="26" t="s">
-        <v>225</v>
+      <c r="R54" s="27" t="s">
+        <v>226</v>
       </c>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
       <c r="W54" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X54" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
       <c r="AB54" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC54" s="7" t="s">
         <v>68</v>
@@ -5493,7 +5501,7 @@
       <c r="AE54" s="7"/>
       <c r="AF54" s="7"/>
       <c r="AG54" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AH54" s="7"/>
       <c r="AI54" s="7" t="n">
@@ -5507,7 +5515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
         <v>48</v>
       </c>
@@ -5522,13 +5530,13 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H55" s="24" t="s">
         <v>243</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>244</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7" t="n">
@@ -5537,17 +5545,17 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R55" s="26" t="s">
+      <c r="R55" s="27" t="s">
         <v>65</v>
       </c>
       <c r="S55" s="7"/>
@@ -5555,10 +5563,10 @@
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X55" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
@@ -5571,7 +5579,7 @@
       <c r="AE55" s="7"/>
       <c r="AF55" s="7"/>
       <c r="AG55" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AH55" s="7"/>
       <c r="AI55" s="7" t="n">
@@ -5585,7 +5593,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
         <v>49</v>
       </c>
@@ -5599,16 +5607,16 @@
         <v>40</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -5616,20 +5624,20 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
@@ -5637,7 +5645,7 @@
       <c r="AA56" s="7"/>
       <c r="AB56" s="7"/>
       <c r="AC56" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD56" s="9" t="n">
         <v>0.04</v>
@@ -5645,10 +5653,10 @@
       <c r="AE56" s="7"/>
       <c r="AF56" s="7"/>
       <c r="AG56" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AH56" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI56" s="7" t="n">
         <v>2</v>
@@ -5661,7 +5669,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
         <v>50</v>
       </c>
@@ -5672,22 +5680,22 @@
         <v>39</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E57" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="E57" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="F57" s="20" t="s">
         <v>250</v>
       </c>
+      <c r="G57" s="20" t="s">
+        <v>251</v>
+      </c>
       <c r="H57" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -5698,7 +5706,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -5725,7 +5733,7 @@
       </c>
       <c r="AL57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
         <v>51</v>
       </c>
@@ -5736,45 +5744,45 @@
         <v>39</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="F58" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E58" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="F58" s="20" t="s">
         <v>256</v>
       </c>
+      <c r="G58" s="20" t="s">
+        <v>257</v>
+      </c>
       <c r="H58" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
       <c r="V58" s="7"/>
       <c r="W58" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X58" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
@@ -5793,7 +5801,7 @@
       <c r="AK58" s="7"/>
       <c r="AL58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
         <v>52</v>
       </c>
@@ -5804,35 +5812,35 @@
         <v>39</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F59" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="F59" s="20" t="s">
         <v>263</v>
       </c>
+      <c r="G59" s="20" t="s">
+        <v>264</v>
+      </c>
       <c r="H59" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
@@ -5840,7 +5848,7 @@
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
       <c r="X59" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
@@ -5859,7 +5867,7 @@
       <c r="AK59" s="7"/>
       <c r="AL59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
         <v>54</v>
       </c>
@@ -5870,35 +5878,35 @@
         <v>39</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F60" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="F60" s="20" t="s">
         <v>270</v>
       </c>
+      <c r="G60" s="20" t="s">
+        <v>271</v>
+      </c>
       <c r="H60" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
@@ -5906,7 +5914,7 @@
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
       <c r="X60" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="269">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -923,6 +924,15 @@
   </si>
   <si>
     <t xml:space="preserve">0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1295,50 +1305,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF59"/>
+  <dimension ref="A1:AMF60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AC49" activeCellId="0" sqref="AC49"/>
+      <selection pane="bottomLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.1619433198381"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -5864,8 +5874,68 @@
       <c r="AK59" s="8"/>
       <c r="AL59" s="8"/>
     </row>
+    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="n">
+        <v>313</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8" t="n">
+        <v>313</v>
+      </c>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL59"/>
+  <autoFilter ref="A1:AL60"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
@@ -5,19 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="266">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -924,15 +923,6 @@
   </si>
   <si>
     <t xml:space="preserve">0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1305,50 +1295,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF60"/>
+  <dimension ref="A1:AMF59"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+      <selection pane="bottomLeft" activeCell="AC49" activeCellId="0" sqref="AC49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="91.587044534413"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.1619433198381"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="90.7287449392713"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="81.4089068825911"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -5874,68 +5864,8 @@
       <c r="AK59" s="8"/>
       <c r="AL59" s="8"/>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="n">
-        <v>313</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="8"/>
-      <c r="AB60" s="8"/>
-      <c r="AC60" s="8"/>
-      <c r="AD60" s="11"/>
-      <c r="AE60" s="8"/>
-      <c r="AF60" s="8"/>
-      <c r="AG60" s="8"/>
-      <c r="AH60" s="8"/>
-      <c r="AI60" s="8"/>
-      <c r="AJ60" s="8" t="n">
-        <v>313</v>
-      </c>
-      <c r="AK60" s="8"/>
-      <c r="AL60" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL60"/>
+  <autoFilter ref="A1:AL59"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="269">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -924,12 +925,21 @@
   <si>
     <t xml:space="preserve">0101</t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
@@ -939,6 +949,7 @@
     <numFmt numFmtId="170" formatCode="0.00%"/>
     <numFmt numFmtId="171" formatCode="@"/>
     <numFmt numFmtId="172" formatCode="D\-MMM"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1080,7 +1091,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1213,6 +1224,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1295,50 +1314,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF59"/>
+  <dimension ref="1:60"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AC49" activeCellId="0" sqref="AC49"/>
+      <selection pane="topLeft" activeCell="AF1" activeCellId="0" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="AJ60" activeCellId="0" sqref="AJ60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.1619433198381"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -5864,6 +5883,67 @@
       <c r="AK59" s="8"/>
       <c r="AL59" s="8"/>
     </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="n">
+        <v>313</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="34"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8" t="n">
+        <v>313</v>
+      </c>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AMJ60" s="0"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AL59"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1704\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9808F696-B93E-4091-80C5-016FF9F0CB0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection lockWindows="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
+    <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AM$56</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AM$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AM$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AM$56</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,136 +27,136 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="259">
   <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name old</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Result Format</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>RD38010032</t>
-  </si>
-  <si>
-    <t>Traditional Trade_NS_REG</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Представленность</t>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional Trade_NS_REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -171,16 +167,16 @@
 </t>
   </si>
   <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average</t>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average</t>
   </si>
   <si>
     <t xml:space="preserve">2
@@ -196,195 +192,195 @@
 </t>
   </si>
   <si>
-    <t>Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 1л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t>5449000054227, 5449000228970</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Activation, Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>54491472</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л слим</t>
-  </si>
-  <si>
-    <t>5449000008046</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>40822938</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>54491069</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.25л слим</t>
-  </si>
-  <si>
-    <t>5449000000712</t>
-  </si>
-  <si>
-    <t>Sprite - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>5449000131836</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.25л слим</t>
-  </si>
-  <si>
-    <t>5449000020987</t>
-  </si>
-  <si>
-    <t>Coca-Cola Vanilla - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Ванила - 0.5л</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>40822426</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>18
+    <t xml:space="preserve">Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000054227, 5449000228970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54491472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000008046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40822938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54491069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000000712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000020987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Vanilla - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Ванила - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40822426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18
 19</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>5449000131768</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>5060335632906</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
-  </si>
-  <si>
-    <t>21
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000131768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060335632906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21
 22</t>
   </si>
   <si>
-    <t>Fuze Berry-Hibiscus - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 0.5L</t>
-  </si>
-  <si>
-    <t>5449000193124, 5449000259455</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 0.5л</t>
-  </si>
-  <si>
-    <t>4607042430879, 5449000027450</t>
-  </si>
-  <si>
-    <t>Juice (JNSD) Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000193124, 5449000259455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042430879, 5449000027450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice (JNSD) Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
   </si>
   <si>
     <t xml:space="preserve">24
@@ -397,236 +393,236 @@
 </t>
   </si>
   <si>
-    <t>Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>4607042434877</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>4607042434891</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>4607042438738</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t>4607042434884</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>4607174577787</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>4607042430619</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t>4650075420980</t>
-  </si>
-  <si>
-    <t>Displays</t>
-  </si>
-  <si>
-    <t>JNSD Displays</t>
-  </si>
-  <si>
-    <t>JNSD Дисплеи</t>
-  </si>
-  <si>
-    <t>STANDARD 27</t>
-  </si>
-  <si>
-    <t>Juice Display</t>
-  </si>
-  <si>
-    <t>Сок Дисплей</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>Juice Displays</t>
-  </si>
-  <si>
-    <t>33
+    <t xml:space="preserve">Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042434877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042434891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042438738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042434884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607174577787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042430619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075420980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNSD Дисплеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33
 34</t>
   </si>
   <si>
-    <t>Juice Display: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>MAN in CAT</t>
-  </si>
-  <si>
-    <t>Juice Display: Lead SKU Dobriy - Apple</t>
-  </si>
-  <si>
-    <t>Juice Display: Lead SKU Dobriy Apple/Multi 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей: Основной СКЮ Добрый Яблоко/Мультифрут 1л</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>35
+    <t xml:space="preserve">Juice Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display: Lead SKU Dobriy - Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display: Lead SKU Dobriy Apple/Multi 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей: Основной СКЮ Добрый Яблоко/Мультифрут 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35
 55</t>
   </si>
   <si>
-    <t>Juice Display: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Lead SKU</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display: Lead Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Coolers</t>
-  </si>
-  <si>
-    <t>Холодильники</t>
-  </si>
-  <si>
-    <t>311
+    <t xml:space="preserve">Juice Display: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display: Lead Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311
 312</t>
   </si>
   <si>
-    <t>Coolers: Doors</t>
-  </si>
-  <si>
-    <t>Холодильник: Двери</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
-  </si>
-  <si>
-    <t>37
+    <t xml:space="preserve">Coolers: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Двери</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37
 39</t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of doors with more than Target facings</t>
-  </si>
-  <si>
-    <t>Manufacture: TCCC</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>FC 1 door, FC door 1.5 door</t>
-  </si>
-  <si>
-    <t>filled collers target</t>
-  </si>
-  <si>
-    <t>number of doors with more than Target facings and with fullness of TCCC product not less than 90%</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>Coolers: Quality</t>
-  </si>
-  <si>
-    <t>Холодильник: Качество</t>
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of doors with more than Target facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacture: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC 1 door, FC door 1.5 door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filled collers target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of doors with more than Target facings and with fullness of TCCC product not less than 90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Качество</t>
   </si>
   <si>
     <t xml:space="preserve">40
@@ -636,258 +632,222 @@
 </t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>Scenes with no tagging</t>
-  </si>
-  <si>
-    <t>Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t>NUM_SCENES</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors".</t>
-  </si>
-  <si>
-    <t>Cooler: Max 15</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE TOTAL</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>43
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes with no tagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43
 45
 48</t>
   </si>
   <si>
-    <t>Min 40% Coca-Cola</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты. Мин 40% Кока-Кола</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>Barnd: Coca-Cola</t>
-  </si>
-  <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>SSD 1 door, SSD  1.5 door, Mixed 1 door, Mixed  1.5 door</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2-3 полке</t>
-  </si>
-  <si>
-    <t>46
+    <t xml:space="preserve">Min 40% Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 40% Кока-Кола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barnd: Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD 1 door, SSD 1.5 door, Mixed 1 door, Mixed  1.5 door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2-3 полке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46
 47</t>
   </si>
   <si>
-    <t>Cooler: Merch Priorty STD fuze shelf 2-3</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
-  </si>
-  <si>
-    <t>Brand: Fuzetea</t>
-  </si>
-  <si>
-    <t>Fuzetea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD 1 door
-NSB 1 door
-Mixed 1 door
-SSD 1.5 door
-NSB  1.5 door
-Mixed  1.5 door
-SSDFL 1 door
-SSDFL 1.5 door
-</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD coca- cola shelf 2-3</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
-  </si>
-  <si>
-    <t>Brand: Coca-Cola</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD every SKUs min 2 facing</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
-  </si>
-  <si>
-    <t>each SKU hits facings target</t>
-  </si>
-  <si>
-    <t>Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>STANDARD 18</t>
-  </si>
-  <si>
-    <t>COOLER_QUALITY</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>sum of KPI scores</t>
-  </si>
-  <si>
-    <t>Decimal.2</t>
-  </si>
-  <si>
-    <t>SESSION LEVEL</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t>COOLER_DOORS</t>
-  </si>
-  <si>
-    <t>Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>template.additional_attribute_1</t>
-  </si>
-  <si>
-    <t>SCENE LEVEL</t>
-  </si>
-  <si>
-    <t>SSD 1 door
-NSB 1 door
-Mixed 1 door
-FC 1 door
-SSD 1.5 door
-NSB  1.5 door
-Mixed  1.5 door
-FC door 1.5 door</t>
-  </si>
-  <si>
-    <t>Attribute 1</t>
-  </si>
-  <si>
-    <t>POP_ACTIVATED</t>
-  </si>
-  <si>
-    <t>POP Activated</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Freezer BIG SSD
-SSD Cooler-Side Rack Big
-SSD Cooler-Side Rack Small
-SSD Mini pallet
-SSD Neck-hanging Rack
-Freezer Small SSD
-Other SSD Display BIG
-Other SSD Display Small
-Juice Cooler-Side Rack
-Juice Freezer
-Juice Mini Pallet
-Other Juice Display BIG
-Pulpy Cooler-Side Rack
-Pulpy Other
-Other Juice Display Small
-Bonaqua Display
-Fuzetea Display
-Energy Display
-Promo SSD
-Promo Juice
-Promo Water
-Promo Energy
-Promo Fuzetea</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 1</t>
-  </si>
-  <si>
-    <t>DISPLAY_ZONES</t>
-  </si>
-  <si>
-    <t>Display Zones</t>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>PLAN</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Integer</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD fuze shelf 2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Fuzetea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzetea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD 1 door, NSB 1 door, Mixed 1 door, SSD 1.5 door, NSB  1.5 door, Mixed  1.5 door, SSDFL 1 door, SSDFL 1.5 door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD coca- cola shelf 2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD every SKUs min 2 facing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">each SKU hits facings target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLER_QUALITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of KPI scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SESSION LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLER_DOORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENE LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD 1 door, NSB 1 door, Mixed 1 door, FC 1 door, SSD 1.5 door, NSB  1.5 door, Mixed  1.5 door, FC door 1.5 door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP_ACTIVATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP Activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freezer BIG SSD, SSD Cooler-Side Rack Big, SSD Cooler-Side Rack Small, SSD Mini pallet, SSD Neck-hanging Rack, Freezer Small SSD, Other SSD Display BIG, Other SSD Display Small, Juice Cooler-Side Rack, Juice Freezer, Juice Mini Pallet, Other Juice Display BIG, Pulpy Cooler-Side Rack, Pulpy Other, Other Juice Display Small, Bonaqua Display, Fuzetea Display, Energy Display, Promo SSD, Promo Juice, Promo Water, Promo Energy, Promo Fuzetea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISPLAY_ZONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -896,7 +856,22 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -919,7 +894,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -927,35 +902,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1014,376 +1023,73 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="Y51" activeCellId="0" sqref="Y51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="1"/>
-    <col min="2" max="2" width="11.6640625" style="1"/>
-    <col min="3" max="3" width="22.33203125" style="1"/>
-    <col min="4" max="4" width="11.109375" style="1"/>
-    <col min="5" max="5" width="15.88671875" style="1"/>
-    <col min="6" max="6" width="17.6640625" style="1"/>
-    <col min="7" max="7" width="47.109375" style="1"/>
-    <col min="8" max="8" width="66.21875" style="1"/>
-    <col min="9" max="9" width="43.33203125" style="1"/>
-    <col min="10" max="10" width="16" style="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="13.109375" style="1"/>
-    <col min="13" max="13" width="13.33203125" style="1"/>
-    <col min="14" max="14" width="27.77734375" style="1"/>
-    <col min="15" max="15" width="29.21875" style="1"/>
-    <col min="16" max="16" width="19.33203125" style="1"/>
-    <col min="17" max="17" width="9.44140625" style="1"/>
-    <col min="18" max="18" width="18.5546875" style="1"/>
-    <col min="19" max="19" width="13.77734375" style="1"/>
-    <col min="20" max="20" width="7" style="1"/>
-    <col min="21" max="21" width="14.33203125" style="1"/>
-    <col min="22" max="22" width="17.88671875" style="1"/>
-    <col min="23" max="23" width="22.5546875" style="1"/>
-    <col min="24" max="24" width="22.33203125" style="1"/>
-    <col min="25" max="25" width="49.33203125" style="1"/>
-    <col min="26" max="26" width="24.6640625" style="1"/>
-    <col min="27" max="27" width="25.88671875" style="1"/>
-    <col min="28" max="28" width="26.33203125" style="1"/>
-    <col min="29" max="29" width="15.77734375" style="1"/>
-    <col min="30" max="30" width="16.33203125" style="1"/>
-    <col min="31" max="31" width="13.33203125" style="2"/>
-    <col min="32" max="32" width="12.6640625" style="1"/>
-    <col min="33" max="33" width="12.88671875" style="1"/>
-    <col min="34" max="34" width="22.6640625" style="1"/>
-    <col min="35" max="35" width="84.88671875" style="1"/>
-    <col min="36" max="36" width="7.5546875" style="1"/>
-    <col min="37" max="37" width="8.88671875" style="1"/>
-    <col min="38" max="38" width="10.88671875" style="1"/>
-    <col min="39" max="39" width="9" style="1"/>
-    <col min="40" max="1025" width="9.21875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.7692307692308"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.8218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.7975708502024"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="54.502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="76.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="50.1619433198381"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.3967611336032"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.0566801619433"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.9676113360324"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="31.9919028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="33.8218623481781"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="21.3684210526316"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.8825910931174"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="8"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.6801619433198"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="26.0526315789474"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.8218623481781"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="57.0161943319838"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="28.5668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="29.8218623481781"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="30.3927125506073"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.165991902834"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.7368421052632"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.5101214574899"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.7408906882591"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="26.165991902834"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="98.2631578947368"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.68421052631579"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.0566801619433"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="12.4534412955466"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="10.5101214574899"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" s="3" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1502,8 +1208,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1515,8 +1221,8 @@
       <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
       <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1526,37 +1232,37 @@
       <c r="I2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2" s="1">
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="1" t="n">
         <v>300</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AM2"/>
-    </row>
-    <row r="3" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="AM2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1571,7 +1277,7 @@
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F3"/>
+      <c r="F3" s="0"/>
       <c r="G3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1581,41 +1287,41 @@
       <c r="I3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AC3"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AC3" s="0"/>
       <c r="AD3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3" s="1">
+      <c r="AE3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AK3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AL3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1630,7 +1336,7 @@
       <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" s="0"/>
       <c r="G4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1640,19 +1346,19 @@
       <c r="I4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4"/>
-      <c r="K4" s="1">
+      <c r="J4" s="0"/>
+      <c r="K4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
       <c r="N4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q4"/>
+      <c r="Q4" s="0"/>
       <c r="R4" s="1" t="s">
         <v>55</v>
       </c>
@@ -1662,33 +1368,33 @@
       <c r="W4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X4"/>
-      <c r="Y4"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
       <c r="Z4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC4"/>
+      <c r="AC4" s="0"/>
       <c r="AD4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE4" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4" s="1">
+      <c r="AE4" s="2" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AL4"/>
-      <c r="AM4" s="1">
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1703,7 +1409,7 @@
       <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" s="0"/>
       <c r="G5" s="1" t="s">
         <v>60</v>
       </c>
@@ -1713,19 +1419,19 @@
       <c r="I5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J5"/>
-      <c r="K5" s="1">
+      <c r="J5" s="0"/>
+      <c r="K5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
       <c r="N5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q5"/>
+      <c r="Q5" s="0"/>
       <c r="R5" s="1" t="s">
         <v>55</v>
       </c>
@@ -1735,33 +1441,33 @@
       <c r="W5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X5"/>
-      <c r="Y5"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
       <c r="Z5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC5"/>
+      <c r="AC5" s="0"/>
       <c r="AD5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE5" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5" s="1">
+      <c r="AE5" s="2" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AL5"/>
-      <c r="AM5" s="1">
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1776,7 +1482,7 @@
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" s="0"/>
       <c r="G6" s="1" t="s">
         <v>63</v>
       </c>
@@ -1786,19 +1492,19 @@
       <c r="I6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J6"/>
-      <c r="K6" s="1">
+      <c r="J6" s="0"/>
+      <c r="K6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
       <c r="N6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q6"/>
+      <c r="Q6" s="0"/>
       <c r="R6" s="1" t="s">
         <v>55</v>
       </c>
@@ -1808,33 +1514,33 @@
       <c r="W6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X6"/>
-      <c r="Y6"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
       <c r="Z6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC6"/>
+      <c r="AC6" s="0"/>
       <c r="AD6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE6" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6" s="1">
+      <c r="AE6" s="2" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AL6"/>
-      <c r="AM6" s="1">
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1849,7 +1555,7 @@
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" s="0"/>
       <c r="G7" s="1" t="s">
         <v>66</v>
       </c>
@@ -1859,19 +1565,19 @@
       <c r="I7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7"/>
-      <c r="K7" s="1">
+      <c r="J7" s="0"/>
+      <c r="K7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
       <c r="N7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q7"/>
+      <c r="Q7" s="0"/>
       <c r="R7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1881,33 +1587,33 @@
       <c r="W7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X7"/>
-      <c r="Y7"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
       <c r="Z7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC7"/>
+      <c r="AC7" s="0"/>
       <c r="AD7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE7" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7" s="1">
+      <c r="AE7" s="2" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AL7"/>
-      <c r="AM7" s="1">
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1922,7 +1628,7 @@
       <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" s="0"/>
       <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
@@ -1932,19 +1638,19 @@
       <c r="I8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J8"/>
-      <c r="K8" s="1">
+      <c r="J8" s="0"/>
+      <c r="K8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
       <c r="N8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q8"/>
+      <c r="Q8" s="0"/>
       <c r="R8" s="1" t="s">
         <v>55</v>
       </c>
@@ -1954,33 +1660,33 @@
       <c r="W8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X8"/>
-      <c r="Y8"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
       <c r="Z8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC8"/>
+      <c r="AC8" s="0"/>
       <c r="AD8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE8" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8" s="1">
+      <c r="AE8" s="2" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AK8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="AL8"/>
-      <c r="AM8" s="1">
+      <c r="AL8" s="0"/>
+      <c r="AM8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1995,7 +1701,7 @@
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9"/>
+      <c r="F9" s="0"/>
       <c r="G9" s="1" t="s">
         <v>72</v>
       </c>
@@ -2005,19 +1711,19 @@
       <c r="I9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J9"/>
-      <c r="K9" s="1">
+      <c r="J9" s="0"/>
+      <c r="K9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
       <c r="N9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q9"/>
+      <c r="Q9" s="0"/>
       <c r="R9" s="1" t="s">
         <v>55</v>
       </c>
@@ -2027,33 +1733,33 @@
       <c r="W9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X9"/>
-      <c r="Y9"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
       <c r="Z9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC9"/>
+      <c r="AC9" s="0"/>
       <c r="AD9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE9" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9" s="1">
+      <c r="AE9" s="2" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AH9" s="0"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AK9" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AL9"/>
-      <c r="AM9" s="1">
+      <c r="AL9" s="0"/>
+      <c r="AM9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2080,19 +1786,19 @@
       <c r="I10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J10"/>
-      <c r="K10" s="1">
+      <c r="J10" s="0"/>
+      <c r="K10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L10"/>
-      <c r="M10"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
       <c r="N10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="1" t="n">
         <v>5449000064110</v>
       </c>
-      <c r="Q10"/>
+      <c r="Q10" s="0"/>
       <c r="R10" s="1" t="s">
         <v>55</v>
       </c>
@@ -2102,33 +1808,33 @@
       <c r="W10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X10"/>
-      <c r="Y10"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
       <c r="Z10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC10"/>
+      <c r="AC10" s="0"/>
       <c r="AD10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE10" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10" s="1">
+      <c r="AE10" s="2" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AH10" s="0"/>
+      <c r="AI10" s="0"/>
+      <c r="AJ10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AK10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="AL10"/>
-      <c r="AM10" s="1">
+      <c r="AL10" s="0"/>
+      <c r="AM10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2143,7 +1849,7 @@
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" s="0"/>
       <c r="G11" s="1" t="s">
         <v>78</v>
       </c>
@@ -2153,19 +1859,19 @@
       <c r="I11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J11"/>
-      <c r="K11" s="1">
+      <c r="J11" s="0"/>
+      <c r="K11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L11"/>
-      <c r="M11"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
       <c r="N11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q11"/>
+      <c r="Q11" s="0"/>
       <c r="R11" s="1" t="s">
         <v>55</v>
       </c>
@@ -2175,33 +1881,33 @@
       <c r="W11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X11"/>
-      <c r="Y11"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
       <c r="Z11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC11"/>
+      <c r="AC11" s="0"/>
       <c r="AD11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE11" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11" s="1">
+      <c r="AE11" s="2" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AK11" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="AL11"/>
-      <c r="AM11" s="1">
+      <c r="AL11" s="0"/>
+      <c r="AM11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2216,7 +1922,7 @@
       <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" s="0"/>
       <c r="G12" s="1" t="s">
         <v>81</v>
       </c>
@@ -2226,19 +1932,19 @@
       <c r="I12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J12"/>
-      <c r="K12" s="1">
+      <c r="J12" s="0"/>
+      <c r="K12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L12"/>
-      <c r="M12"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
       <c r="N12" s="1" t="s">
         <v>81</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Q12"/>
+      <c r="Q12" s="0"/>
       <c r="R12" s="1" t="s">
         <v>55</v>
       </c>
@@ -2248,33 +1954,33 @@
       <c r="W12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X12"/>
-      <c r="Y12"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
       <c r="Z12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC12"/>
+      <c r="AC12" s="0"/>
       <c r="AD12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE12" s="2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12" s="1">
+      <c r="AE12" s="2" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AK12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="AL12"/>
-      <c r="AM12" s="1">
+      <c r="AL12" s="0"/>
+      <c r="AM12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2289,7 +1995,7 @@
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13"/>
+      <c r="F13" s="0"/>
       <c r="G13" s="1" t="s">
         <v>84</v>
       </c>
@@ -2299,19 +2005,19 @@
       <c r="I13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J13"/>
-      <c r="K13" s="1">
+      <c r="J13" s="0"/>
+      <c r="K13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L13"/>
-      <c r="M13"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
       <c r="N13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="1" t="n">
         <v>42099697</v>
       </c>
-      <c r="Q13"/>
+      <c r="Q13" s="0"/>
       <c r="R13" s="1" t="s">
         <v>55</v>
       </c>
@@ -2321,33 +2027,33 @@
       <c r="W13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X13"/>
-      <c r="Y13"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0"/>
       <c r="Z13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC13"/>
+      <c r="AC13" s="0"/>
       <c r="AD13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE13" s="2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13" s="1">
+      <c r="AE13" s="2" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AH13" s="0"/>
+      <c r="AI13" s="0"/>
+      <c r="AJ13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK13" s="1" t="n">
         <v>603</v>
       </c>
-      <c r="AL13"/>
-      <c r="AM13" s="1">
+      <c r="AL13" s="0"/>
+      <c r="AM13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2362,7 +2068,7 @@
       <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F14"/>
+      <c r="F14" s="0"/>
       <c r="G14" s="1" t="s">
         <v>87</v>
       </c>
@@ -2372,41 +2078,41 @@
       <c r="I14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AC14"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AC14" s="0"/>
       <c r="AD14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE14"/>
-      <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14" s="1">
+      <c r="AE14" s="0"/>
+      <c r="AH14" s="0"/>
+      <c r="AI14" s="0"/>
+      <c r="AJ14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AK14" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AL14" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AM14" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2421,7 +2127,7 @@
       <c r="E15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F15"/>
+      <c r="F15" s="0"/>
       <c r="G15" s="1" t="s">
         <v>89</v>
       </c>
@@ -2431,19 +2137,19 @@
       <c r="I15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J15"/>
-      <c r="K15" s="1">
+      <c r="J15" s="0"/>
+      <c r="K15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L15"/>
-      <c r="M15"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
       <c r="N15" s="1" t="s">
         <v>89</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q15"/>
+      <c r="Q15" s="0"/>
       <c r="R15" s="1" t="s">
         <v>55</v>
       </c>
@@ -2453,33 +2159,33 @@
       <c r="W15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X15"/>
-      <c r="Y15"/>
+      <c r="X15" s="0"/>
+      <c r="Y15" s="0"/>
       <c r="Z15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC15"/>
+      <c r="AC15" s="0"/>
       <c r="AD15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE15" s="2">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="AH15"/>
-      <c r="AI15"/>
-      <c r="AJ15" s="1">
+      <c r="AE15" s="2" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="AH15" s="0"/>
+      <c r="AI15" s="0"/>
+      <c r="AJ15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AK15" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="AL15"/>
-      <c r="AM15" s="1">
+      <c r="AL15" s="0"/>
+      <c r="AM15" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2494,7 +2200,7 @@
       <c r="E16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F16"/>
+      <c r="F16" s="0"/>
       <c r="G16" s="1" t="s">
         <v>92</v>
       </c>
@@ -2504,41 +2210,41 @@
       <c r="I16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AC16"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AC16" s="0"/>
       <c r="AD16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16" s="1">
+      <c r="AE16" s="0"/>
+      <c r="AH16" s="0"/>
+      <c r="AI16" s="0"/>
+      <c r="AJ16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AK16" s="1" t="n">
         <v>17</v>
       </c>
       <c r="AL16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AM16" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2553,7 +2259,7 @@
       <c r="E17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F17"/>
+      <c r="F17" s="0"/>
       <c r="G17" s="1" t="s">
         <v>95</v>
       </c>
@@ -2563,19 +2269,19 @@
       <c r="I17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J17"/>
-      <c r="K17" s="1">
+      <c r="J17" s="0"/>
+      <c r="K17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L17"/>
-      <c r="M17"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
       <c r="N17" s="1" t="s">
         <v>95</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q17"/>
+      <c r="Q17" s="0"/>
       <c r="R17" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,33 +2291,33 @@
       <c r="W17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X17"/>
-      <c r="Y17"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
       <c r="Z17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC17"/>
+      <c r="AC17" s="0"/>
       <c r="AD17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE17" s="2">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17" s="1">
+      <c r="AE17" s="2" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="AH17" s="0"/>
+      <c r="AI17" s="0"/>
+      <c r="AJ17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AK17" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="AL17"/>
-      <c r="AM17" s="1">
+      <c r="AL17" s="0"/>
+      <c r="AM17" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2626,7 +2332,7 @@
       <c r="E18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F18"/>
+      <c r="F18" s="0"/>
       <c r="G18" s="1" t="s">
         <v>98</v>
       </c>
@@ -2636,19 +2342,19 @@
       <c r="I18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J18"/>
-      <c r="K18" s="1">
+      <c r="J18" s="0"/>
+      <c r="K18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L18"/>
-      <c r="M18"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
       <c r="N18" s="1" t="s">
         <v>98</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q18"/>
+      <c r="Q18" s="0"/>
       <c r="R18" s="1" t="s">
         <v>55</v>
       </c>
@@ -2658,33 +2364,33 @@
       <c r="W18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X18"/>
-      <c r="Y18"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
       <c r="Z18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC18"/>
+      <c r="AC18" s="0"/>
       <c r="AD18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE18" s="2">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18" s="1">
+      <c r="AE18" s="2" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="AH18" s="0"/>
+      <c r="AI18" s="0"/>
+      <c r="AJ18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AK18" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="AL18"/>
-      <c r="AM18" s="1">
+      <c r="AL18" s="0"/>
+      <c r="AM18" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2699,7 +2405,7 @@
       <c r="E19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F19"/>
+      <c r="F19" s="0"/>
       <c r="G19" s="1" t="s">
         <v>101</v>
       </c>
@@ -2709,41 +2415,41 @@
       <c r="I19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AC19"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AC19" s="0"/>
       <c r="AD19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE19"/>
-      <c r="AH19"/>
-      <c r="AI19"/>
-      <c r="AJ19" s="1">
+      <c r="AE19" s="0"/>
+      <c r="AH19" s="0"/>
+      <c r="AI19" s="0"/>
+      <c r="AJ19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AK19" s="1" t="n">
         <v>20</v>
       </c>
       <c r="AL19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AM19" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2758,7 +2464,7 @@
       <c r="E20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F20"/>
+      <c r="F20" s="0"/>
       <c r="G20" s="1" t="s">
         <v>104</v>
       </c>
@@ -2768,19 +2474,19 @@
       <c r="I20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J20"/>
-      <c r="K20" s="1">
+      <c r="J20" s="0"/>
+      <c r="K20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L20"/>
-      <c r="M20"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
       <c r="N20" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Q20"/>
+      <c r="Q20" s="0"/>
       <c r="R20" s="1" t="s">
         <v>55</v>
       </c>
@@ -2790,33 +2496,33 @@
       <c r="W20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X20"/>
-      <c r="Y20"/>
+      <c r="X20" s="0"/>
+      <c r="Y20" s="0"/>
       <c r="Z20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC20"/>
+      <c r="AC20" s="0"/>
       <c r="AD20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE20" s="2">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20" s="1">
+      <c r="AE20" s="2" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="AH20" s="0"/>
+      <c r="AI20" s="0"/>
+      <c r="AJ20" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AK20" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="AL20"/>
-      <c r="AM20" s="1">
+      <c r="AL20" s="0"/>
+      <c r="AM20" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2831,7 +2537,7 @@
       <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F21"/>
+      <c r="F21" s="0"/>
       <c r="G21" s="1" t="s">
         <v>108</v>
       </c>
@@ -2841,19 +2547,19 @@
       <c r="I21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J21"/>
-      <c r="K21" s="1">
+      <c r="J21" s="0"/>
+      <c r="K21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L21"/>
-      <c r="M21"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
       <c r="N21" s="1" t="s">
         <v>108</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q21"/>
+      <c r="Q21" s="0"/>
       <c r="R21" s="1" t="s">
         <v>55</v>
       </c>
@@ -2863,33 +2569,33 @@
       <c r="W21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X21"/>
-      <c r="Y21"/>
+      <c r="X21" s="0"/>
+      <c r="Y21" s="0"/>
       <c r="Z21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC21"/>
+      <c r="AC21" s="0"/>
       <c r="AD21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE21" s="2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AH21"/>
-      <c r="AI21"/>
-      <c r="AJ21" s="1">
+      <c r="AE21" s="2" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AH21" s="0"/>
+      <c r="AI21" s="0"/>
+      <c r="AJ21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AK21" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="AL21"/>
-      <c r="AM21" s="1">
+      <c r="AL21" s="0"/>
+      <c r="AM21" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2904,7 +2610,7 @@
       <c r="E22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F22"/>
+      <c r="F22" s="0"/>
       <c r="G22" s="1" t="s">
         <v>111</v>
       </c>
@@ -2914,41 +2620,41 @@
       <c r="I22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AC22"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AC22" s="0"/>
       <c r="AD22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE22"/>
-      <c r="AH22"/>
-      <c r="AI22"/>
-      <c r="AJ22" s="1">
+      <c r="AE22" s="0"/>
+      <c r="AH22" s="0"/>
+      <c r="AI22" s="0"/>
+      <c r="AJ22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AK22" s="1" t="n">
         <v>23</v>
       </c>
       <c r="AL22" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AM22" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2963,7 +2669,7 @@
       <c r="E23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F23"/>
+      <c r="F23" s="0"/>
       <c r="G23" s="1" t="s">
         <v>114</v>
       </c>
@@ -2973,19 +2679,19 @@
       <c r="I23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J23"/>
-      <c r="K23" s="1">
+      <c r="J23" s="0"/>
+      <c r="K23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L23"/>
-      <c r="M23"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
       <c r="N23" s="1" t="s">
         <v>114</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q23"/>
+      <c r="Q23" s="0"/>
       <c r="R23" s="1" t="s">
         <v>55</v>
       </c>
@@ -2995,33 +2701,33 @@
       <c r="W23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X23"/>
-      <c r="Y23"/>
+      <c r="X23" s="0"/>
+      <c r="Y23" s="0"/>
       <c r="Z23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC23"/>
+      <c r="AC23" s="0"/>
       <c r="AD23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE23" s="2">
-        <v>1.788E-2</v>
-      </c>
-      <c r="AH23"/>
-      <c r="AI23"/>
-      <c r="AJ23" s="1">
+      <c r="AE23" s="2" t="n">
+        <v>0.01788</v>
+      </c>
+      <c r="AH23" s="0"/>
+      <c r="AI23" s="0"/>
+      <c r="AJ23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AK23" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="AL23"/>
-      <c r="AM23" s="1">
+      <c r="AL23" s="0"/>
+      <c r="AM23" s="1" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3036,7 +2742,7 @@
       <c r="E24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F24"/>
+      <c r="F24" s="0"/>
       <c r="G24" s="1" t="s">
         <v>117</v>
       </c>
@@ -3046,19 +2752,19 @@
       <c r="I24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J24"/>
-      <c r="K24" s="1">
+      <c r="J24" s="0"/>
+      <c r="K24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L24"/>
-      <c r="M24"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
       <c r="N24" s="1" t="s">
         <v>117</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q24"/>
+      <c r="Q24" s="0"/>
       <c r="R24" s="1" t="s">
         <v>55</v>
       </c>
@@ -3068,33 +2774,33 @@
       <c r="W24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X24"/>
-      <c r="Y24"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
       <c r="Z24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC24"/>
+      <c r="AC24" s="0"/>
       <c r="AD24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE24" s="2">
-        <v>1.788E-2</v>
-      </c>
-      <c r="AH24"/>
-      <c r="AI24"/>
-      <c r="AJ24" s="1">
+      <c r="AE24" s="2" t="n">
+        <v>0.01788</v>
+      </c>
+      <c r="AH24" s="0"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AK24" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AL24"/>
-      <c r="AM24" s="1">
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="1" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3109,7 +2815,7 @@
       <c r="E25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F25"/>
+      <c r="F25" s="0"/>
       <c r="G25" s="1" t="s">
         <v>120</v>
       </c>
@@ -3119,19 +2825,19 @@
       <c r="I25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J25"/>
-      <c r="K25" s="1">
+      <c r="J25" s="0"/>
+      <c r="K25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L25"/>
-      <c r="M25"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
       <c r="N25" s="1" t="s">
         <v>120</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q25"/>
+      <c r="Q25" s="0"/>
       <c r="R25" s="1" t="s">
         <v>55</v>
       </c>
@@ -3141,33 +2847,33 @@
       <c r="W25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X25"/>
-      <c r="Y25"/>
+      <c r="X25" s="0"/>
+      <c r="Y25" s="0"/>
       <c r="Z25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC25"/>
+      <c r="AC25" s="0"/>
       <c r="AD25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE25" s="2">
-        <v>1.788E-2</v>
-      </c>
-      <c r="AH25"/>
-      <c r="AI25"/>
-      <c r="AJ25" s="1">
+      <c r="AE25" s="2" t="n">
+        <v>0.01788</v>
+      </c>
+      <c r="AH25" s="0"/>
+      <c r="AI25" s="0"/>
+      <c r="AJ25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AK25" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AL25"/>
-      <c r="AM25" s="1">
+      <c r="AL25" s="0"/>
+      <c r="AM25" s="1" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3182,7 +2888,7 @@
       <c r="E26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F26"/>
+      <c r="F26" s="0"/>
       <c r="G26" s="1" t="s">
         <v>123</v>
       </c>
@@ -3192,19 +2898,19 @@
       <c r="I26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J26"/>
-      <c r="K26" s="1">
+      <c r="J26" s="0"/>
+      <c r="K26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L26"/>
-      <c r="M26"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
       <c r="N26" s="1" t="s">
         <v>123</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q26"/>
+      <c r="Q26" s="0"/>
       <c r="R26" s="1" t="s">
         <v>55</v>
       </c>
@@ -3214,33 +2920,33 @@
       <c r="W26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X26"/>
-      <c r="Y26"/>
+      <c r="X26" s="0"/>
+      <c r="Y26" s="0"/>
       <c r="Z26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC26"/>
+      <c r="AC26" s="0"/>
       <c r="AD26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE26" s="2">
-        <v>1.788E-2</v>
-      </c>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26" s="1">
+      <c r="AE26" s="2" t="n">
+        <v>0.01788</v>
+      </c>
+      <c r="AH26" s="0"/>
+      <c r="AI26" s="0"/>
+      <c r="AJ26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AK26" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AL26"/>
-      <c r="AM26" s="1">
+      <c r="AL26" s="0"/>
+      <c r="AM26" s="1" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3255,7 +2961,7 @@
       <c r="E27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F27"/>
+      <c r="F27" s="0"/>
       <c r="G27" s="1" t="s">
         <v>126</v>
       </c>
@@ -3265,19 +2971,19 @@
       <c r="I27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J27"/>
-      <c r="K27" s="1">
+      <c r="J27" s="0"/>
+      <c r="K27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L27"/>
-      <c r="M27"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
       <c r="N27" s="1" t="s">
         <v>126</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q27"/>
+      <c r="Q27" s="0"/>
       <c r="R27" s="1" t="s">
         <v>55</v>
       </c>
@@ -3287,33 +2993,33 @@
       <c r="W27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X27"/>
-      <c r="Y27"/>
+      <c r="X27" s="0"/>
+      <c r="Y27" s="0"/>
       <c r="Z27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC27"/>
+      <c r="AC27" s="0"/>
       <c r="AD27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE27" s="2">
-        <v>1.788E-2</v>
-      </c>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27" s="1">
+      <c r="AE27" s="2" t="n">
+        <v>0.01788</v>
+      </c>
+      <c r="AH27" s="0"/>
+      <c r="AI27" s="0"/>
+      <c r="AJ27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AK27" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AL27"/>
-      <c r="AM27" s="1">
+      <c r="AL27" s="0"/>
+      <c r="AM27" s="1" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3328,7 +3034,7 @@
       <c r="E28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F28"/>
+      <c r="F28" s="0"/>
       <c r="G28" s="1" t="s">
         <v>129</v>
       </c>
@@ -3338,19 +3044,19 @@
       <c r="I28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J28"/>
-      <c r="K28" s="1">
+      <c r="J28" s="0"/>
+      <c r="K28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L28"/>
-      <c r="M28"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
       <c r="N28" s="1" t="s">
         <v>129</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q28"/>
+      <c r="Q28" s="0"/>
       <c r="R28" s="1" t="s">
         <v>55</v>
       </c>
@@ -3360,33 +3066,33 @@
       <c r="W28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X28"/>
-      <c r="Y28"/>
+      <c r="X28" s="0"/>
+      <c r="Y28" s="0"/>
       <c r="Z28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC28"/>
+      <c r="AC28" s="0"/>
       <c r="AD28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE28" s="2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28" s="1">
+      <c r="AE28" s="2" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AH28" s="0"/>
+      <c r="AI28" s="0"/>
+      <c r="AJ28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AK28" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="AL28"/>
-      <c r="AM28" s="1">
+      <c r="AL28" s="0"/>
+      <c r="AM28" s="1" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3401,7 +3107,7 @@
       <c r="E29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F29"/>
+      <c r="F29" s="0"/>
       <c r="G29" s="1" t="s">
         <v>132</v>
       </c>
@@ -3411,19 +3117,19 @@
       <c r="I29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J29"/>
-      <c r="K29" s="1">
+      <c r="J29" s="0"/>
+      <c r="K29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L29"/>
-      <c r="M29"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
       <c r="N29" s="1" t="s">
         <v>132</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q29"/>
+      <c r="Q29" s="0"/>
       <c r="R29" s="1" t="s">
         <v>55</v>
       </c>
@@ -3433,33 +3139,33 @@
       <c r="W29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X29"/>
-      <c r="Y29"/>
+      <c r="X29" s="0"/>
+      <c r="Y29" s="0"/>
       <c r="Z29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC29"/>
+      <c r="AC29" s="0"/>
       <c r="AD29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE29" s="2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29" s="1">
+      <c r="AE29" s="2" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AH29" s="0"/>
+      <c r="AI29" s="0"/>
+      <c r="AJ29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AK29" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AL29"/>
-      <c r="AM29" s="1">
+      <c r="AL29" s="0"/>
+      <c r="AM29" s="1" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3471,8 +3177,8 @@
       <c r="D30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E30"/>
-      <c r="F30"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
       <c r="G30" s="1" t="s">
         <v>135</v>
       </c>
@@ -3482,36 +3188,36 @@
       <c r="I30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30" s="1">
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="X30" s="0"/>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+      <c r="AE30" s="0"/>
+      <c r="AH30" s="0"/>
+      <c r="AI30" s="0"/>
+      <c r="AJ30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AK30" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AL30" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="AM30"/>
-    </row>
-    <row r="31" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="AM30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3523,8 +3229,8 @@
       <c r="D31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E31"/>
-      <c r="F31"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
       <c r="G31" s="1" t="s">
         <v>136</v>
       </c>
@@ -3534,38 +3240,38 @@
       <c r="I31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31" s="1">
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="X31" s="0"/>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AC31" s="0"/>
+      <c r="AD31" s="0"/>
+      <c r="AE31" s="0"/>
+      <c r="AH31" s="0"/>
+      <c r="AI31" s="0"/>
+      <c r="AJ31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AK31" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AL31" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="AM31" s="1">
+      <c r="AM31" s="1" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3580,7 +3286,7 @@
       <c r="E32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F32"/>
+      <c r="F32" s="0"/>
       <c r="G32" s="1" t="s">
         <v>139</v>
       </c>
@@ -3590,48 +3296,48 @@
       <c r="I32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J32"/>
-      <c r="K32" s="1">
+      <c r="J32" s="0"/>
+      <c r="K32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="Q32"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="Q32" s="0"/>
       <c r="R32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S32"/>
+      <c r="S32" s="0"/>
       <c r="X32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AC32"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AC32" s="0"/>
       <c r="AD32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE32" s="2">
+      <c r="AE32" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32" s="1">
+      <c r="AH32" s="0"/>
+      <c r="AI32" s="0"/>
+      <c r="AJ32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AK32" s="1">
+      <c r="AK32" s="1" t="n">
         <v>32</v>
       </c>
       <c r="AL32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AM32" s="1">
+      <c r="AM32" s="1" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3646,7 +3352,7 @@
       <c r="E33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F33"/>
+      <c r="F33" s="0"/>
       <c r="G33" s="1" t="s">
         <v>144</v>
       </c>
@@ -3656,19 +3362,19 @@
       <c r="I33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J33"/>
-      <c r="K33" s="1">
+      <c r="J33" s="0"/>
+      <c r="K33" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="L33"/>
-      <c r="M33"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
       <c r="N33" s="1" t="s">
         <v>146</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q33"/>
+      <c r="Q33" s="0"/>
       <c r="R33" s="1" t="s">
         <v>55</v>
       </c>
@@ -3678,28 +3384,28 @@
       <c r="X33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AC33"/>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AC33" s="0"/>
       <c r="AD33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33" s="1">
+      <c r="AE33" s="0"/>
+      <c r="AH33" s="0"/>
+      <c r="AI33" s="0"/>
+      <c r="AJ33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK33" s="1">
+      <c r="AK33" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="AL33"/>
-      <c r="AM33" s="1">
+      <c r="AL33" s="0"/>
+      <c r="AM33" s="1" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3726,46 +3432,46 @@
       <c r="I34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J34"/>
-      <c r="K34" s="1">
+      <c r="J34" s="0"/>
+      <c r="K34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="Q34"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="Q34" s="0"/>
       <c r="R34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S34"/>
+      <c r="S34" s="0"/>
       <c r="X34" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AC34"/>
+      <c r="Y34" s="0"/>
+      <c r="Z34" s="0"/>
+      <c r="AC34" s="0"/>
       <c r="AD34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34" s="1">
+      <c r="AE34" s="0"/>
+      <c r="AH34" s="0"/>
+      <c r="AI34" s="0"/>
+      <c r="AJ34" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK34" s="1">
+      <c r="AK34" s="1" t="n">
         <v>34</v>
       </c>
       <c r="AL34" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AM34" s="1">
+      <c r="AM34" s="1" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3789,17 +3495,17 @@
       <c r="I35" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
       <c r="N35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="1" t="n">
         <v>4607042434877</v>
       </c>
-      <c r="Q35"/>
+      <c r="Q35" s="0"/>
       <c r="R35" s="1" t="s">
         <v>55</v>
       </c>
@@ -3809,30 +3515,30 @@
       <c r="X35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AC35"/>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AC35" s="0"/>
       <c r="AD35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE35"/>
-      <c r="AH35"/>
+      <c r="AE35" s="0"/>
+      <c r="AH35" s="0"/>
       <c r="AI35" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AJ35" s="1">
+      <c r="AJ35" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AK35" s="1">
+      <c r="AK35" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="AL35"/>
-      <c r="AM35" s="1">
+      <c r="AL35" s="0"/>
+      <c r="AM35" s="1" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3856,17 +3562,17 @@
       <c r="I36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="0"/>
       <c r="N36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="1" t="n">
         <v>4607042434891</v>
       </c>
-      <c r="Q36"/>
+      <c r="Q36" s="0"/>
       <c r="R36" s="1" t="s">
         <v>55</v>
       </c>
@@ -3876,30 +3582,30 @@
       <c r="X36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AC36"/>
+      <c r="Y36" s="0"/>
+      <c r="Z36" s="0"/>
+      <c r="AC36" s="0"/>
       <c r="AD36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE36"/>
-      <c r="AH36"/>
+      <c r="AE36" s="0"/>
+      <c r="AH36" s="0"/>
       <c r="AI36" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="AJ36" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AK36" s="1">
+      <c r="AK36" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="AL36"/>
-      <c r="AM36" s="1">
+      <c r="AL36" s="0"/>
+      <c r="AM36" s="1" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3911,7 +3617,7 @@
       <c r="D37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" s="0"/>
       <c r="G37" s="1" t="s">
         <v>161</v>
       </c>
@@ -3921,36 +3627,36 @@
       <c r="I37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-      <c r="AE37"/>
-      <c r="AH37"/>
-      <c r="AI37"/>
-      <c r="AJ37" s="1">
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
+      <c r="X37" s="0"/>
+      <c r="Y37" s="0"/>
+      <c r="Z37" s="0"/>
+      <c r="AC37" s="0"/>
+      <c r="AD37" s="0"/>
+      <c r="AE37" s="0"/>
+      <c r="AH37" s="0"/>
+      <c r="AI37" s="0"/>
+      <c r="AJ37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AK37" s="1">
+      <c r="AK37" s="1" t="n">
         <v>310</v>
       </c>
       <c r="AL37" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AM37"/>
-    </row>
-    <row r="38" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="AM37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3962,7 +3668,7 @@
       <c r="D38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" s="0"/>
       <c r="G38" s="1" t="s">
         <v>164</v>
       </c>
@@ -3972,38 +3678,38 @@
       <c r="I38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
-      <c r="AE38"/>
-      <c r="AH38"/>
-      <c r="AI38"/>
-      <c r="AJ38" s="1">
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="X38" s="0"/>
+      <c r="Y38" s="0"/>
+      <c r="Z38" s="0"/>
+      <c r="AC38" s="0"/>
+      <c r="AD38" s="0"/>
+      <c r="AE38" s="0"/>
+      <c r="AH38" s="0"/>
+      <c r="AI38" s="0"/>
+      <c r="AJ38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AK38" s="1">
+      <c r="AK38" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="AL38" s="1">
+      <c r="AL38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="AM38" s="1">
+      <c r="AM38" s="1" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4027,46 +3733,46 @@
       <c r="I39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="Q39"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="0"/>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="Q39" s="0"/>
       <c r="R39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="S39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AC39"/>
+      <c r="S39" s="0"/>
+      <c r="X39" s="0"/>
+      <c r="Y39" s="0"/>
+      <c r="Z39" s="0"/>
+      <c r="AC39" s="0"/>
       <c r="AD39" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AE39" s="2">
+      <c r="AE39" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="AH39"/>
+      <c r="AH39" s="0"/>
       <c r="AI39" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AJ39" s="1">
+      <c r="AJ39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AK39" s="1">
+      <c r="AK39" s="1" t="n">
         <v>36</v>
       </c>
       <c r="AL39" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AM39" s="1">
+      <c r="AM39" s="1" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -4090,56 +3796,56 @@
       <c r="I40" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J40"/>
-      <c r="K40" s="1">
+      <c r="J40" s="0"/>
+      <c r="K40" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="M40"/>
+      <c r="M40" s="0"/>
       <c r="N40" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q40"/>
-      <c r="R40"/>
+      <c r="Q40" s="0"/>
+      <c r="R40" s="0"/>
       <c r="S40" s="1" t="s">
         <v>179</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Y40"/>
+      <c r="Y40" s="0"/>
       <c r="Z40" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AC40"/>
+      <c r="AC40" s="0"/>
       <c r="AD40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE40"/>
+      <c r="AE40" s="0"/>
       <c r="AH40" s="1" t="s">
         <v>182</v>
       </c>
       <c r="AI40" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AJ40" s="1">
+      <c r="AJ40" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK40" s="1">
+      <c r="AK40" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="AL40"/>
-      <c r="AM40" s="1">
+      <c r="AL40" s="0"/>
+      <c r="AM40" s="1" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -4163,48 +3869,48 @@
       <c r="I41" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J41"/>
-      <c r="K41" s="1">
+      <c r="J41" s="0"/>
+      <c r="K41" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="L41"/>
-      <c r="M41"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="0"/>
       <c r="N41" s="1" t="s">
         <v>146</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q41"/>
-      <c r="R41"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
       <c r="S41" s="1" t="s">
         <v>179</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AC41"/>
+      <c r="Y41" s="0"/>
+      <c r="Z41" s="0"/>
+      <c r="AC41" s="0"/>
       <c r="AD41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE41"/>
-      <c r="AH41"/>
-      <c r="AI41"/>
-      <c r="AJ41" s="1">
+      <c r="AE41" s="0"/>
+      <c r="AH41" s="0"/>
+      <c r="AI41" s="0"/>
+      <c r="AJ41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK41" s="1">
-        <v>39</v>
-      </c>
-      <c r="AL41"/>
-      <c r="AM41" s="1">
+      <c r="AK41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AL41" s="0"/>
+      <c r="AM41" s="1" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4216,7 +3922,7 @@
       <c r="D42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E42"/>
+      <c r="E42" s="0"/>
       <c r="G42" s="1" t="s">
         <v>188</v>
       </c>
@@ -4226,38 +3932,38 @@
       <c r="I42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-      <c r="Z42"/>
-      <c r="AC42"/>
-      <c r="AD42"/>
-      <c r="AE42"/>
-      <c r="AH42"/>
-      <c r="AI42"/>
-      <c r="AJ42" s="1">
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+      <c r="L42" s="0"/>
+      <c r="M42" s="0"/>
+      <c r="N42" s="0"/>
+      <c r="O42" s="0"/>
+      <c r="Q42" s="0"/>
+      <c r="R42" s="0"/>
+      <c r="S42" s="0"/>
+      <c r="X42" s="0"/>
+      <c r="Y42" s="0"/>
+      <c r="Z42" s="0"/>
+      <c r="AC42" s="0"/>
+      <c r="AD42" s="0"/>
+      <c r="AE42" s="0"/>
+      <c r="AH42" s="0"/>
+      <c r="AI42" s="0"/>
+      <c r="AJ42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AK42" s="1">
+      <c r="AK42" s="1" t="n">
         <v>312</v>
       </c>
       <c r="AL42" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AM42" s="1">
+      <c r="AM42" s="1" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -4281,18 +3987,18 @@
       <c r="I43" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J43"/>
-      <c r="K43" s="1">
+      <c r="J43" s="0"/>
+      <c r="K43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="0"/>
+      <c r="N43" s="0"/>
       <c r="O43" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q43"/>
-      <c r="R43"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
       <c r="S43" s="1" t="s">
         <v>196</v>
       </c>
@@ -4302,12 +4008,12 @@
       <c r="Y43" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Z43"/>
-      <c r="AC43"/>
+      <c r="Z43" s="0"/>
+      <c r="AC43" s="0"/>
       <c r="AD43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AE43" s="2" t="n">
         <v>0.04</v>
       </c>
       <c r="AH43" s="1" t="s">
@@ -4316,19 +4022,19 @@
       <c r="AI43" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AJ43" s="1">
+      <c r="AJ43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AK43" s="1">
-        <v>40</v>
-      </c>
-      <c r="AL43"/>
-      <c r="AM43" s="1">
+      <c r="AK43" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL43" s="0"/>
+      <c r="AM43" s="1" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4352,12 +4058,12 @@
       <c r="I44" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44" s="1">
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="1" t="n">
         <v>15</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -4366,21 +4072,21 @@
       <c r="O44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
+      <c r="S44" s="0"/>
       <c r="X44" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Y44"/>
+      <c r="Y44" s="0"/>
       <c r="Z44" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AC44"/>
+      <c r="AC44" s="0"/>
       <c r="AD44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE44" s="2">
+      <c r="AE44" s="2" t="n">
         <v>0.04</v>
       </c>
       <c r="AH44" s="1" t="s">
@@ -4389,19 +4095,19 @@
       <c r="AI44" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AJ44" s="1">
+      <c r="AJ44" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AK44" s="1">
-        <v>41</v>
-      </c>
-      <c r="AL44"/>
-      <c r="AM44" s="1">
+      <c r="AK44" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL44" s="0"/>
+      <c r="AM44" s="1" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4425,24 +4131,24 @@
       <c r="I45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="Q45"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="Q45" s="0"/>
       <c r="R45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="S45"/>
+      <c r="S45" s="0"/>
       <c r="X45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Y45"/>
-      <c r="AC45"/>
+      <c r="Y45" s="0"/>
+      <c r="AC45" s="0"/>
       <c r="AD45" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AE45" s="2">
+      <c r="AE45" s="2" t="n">
         <v>0.04</v>
       </c>
       <c r="AH45" s="1" t="s">
@@ -4451,21 +4157,21 @@
       <c r="AI45" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AJ45" s="1">
+      <c r="AJ45" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AK45" s="1">
+      <c r="AK45" s="1" t="n">
         <v>42</v>
       </c>
       <c r="AL45" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AM45" s="1">
+      <c r="AM45" s="1" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4477,7 +4183,7 @@
       <c r="D46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" s="0"/>
       <c r="G46" s="1" t="s">
         <v>206</v>
       </c>
@@ -4487,8 +4193,8 @@
       <c r="I46" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J46"/>
-      <c r="K46" s="1">
+      <c r="J46" s="0"/>
+      <c r="K46" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -4512,30 +4218,30 @@
       <c r="Y46" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AC46"/>
+      <c r="AC46" s="0"/>
       <c r="AD46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE46"/>
+      <c r="AE46" s="0"/>
       <c r="AH46" s="1" t="s">
         <v>174</v>
       </c>
       <c r="AI46" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AJ46" s="1">
+      <c r="AJ46" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK46" s="1">
+      <c r="AK46" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="AL46"/>
-      <c r="AM46" s="1">
+      <c r="AL46" s="0"/>
+      <c r="AM46" s="1" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -4547,7 +4253,7 @@
       <c r="D47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E47"/>
+      <c r="E47" s="0"/>
       <c r="G47" s="1" t="s">
         <v>213</v>
       </c>
@@ -4557,47 +4263,47 @@
       <c r="I47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J47"/>
-      <c r="K47" s="1">
+      <c r="J47" s="0"/>
+      <c r="K47" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="Q47"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="Q47" s="0"/>
       <c r="R47" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="S47"/>
+      <c r="S47" s="0"/>
       <c r="X47" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Y47"/>
-      <c r="AC47"/>
+      <c r="Y47" s="0"/>
+      <c r="AC47" s="0"/>
       <c r="AD47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE47"/>
+      <c r="AE47" s="0"/>
       <c r="AH47" s="1" t="s">
         <v>174</v>
       </c>
       <c r="AI47" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AJ47" s="1">
+      <c r="AJ47" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK47" s="1">
+      <c r="AK47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="AL47" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AM47" s="1">
+      <c r="AM47" s="1" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4609,7 +4315,7 @@
       <c r="D48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E48"/>
+      <c r="E48" s="0"/>
       <c r="G48" s="1" t="s">
         <v>216</v>
       </c>
@@ -4619,8 +4325,8 @@
       <c r="I48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J48"/>
-      <c r="K48" s="1">
+      <c r="J48" s="0"/>
+      <c r="K48" s="1" t="n">
         <v>4</v>
       </c>
       <c r="N48" s="1" t="s">
@@ -4650,26 +4356,26 @@
       <c r="AD48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE48"/>
+      <c r="AE48" s="0"/>
       <c r="AH48" s="1" t="s">
         <v>174</v>
       </c>
       <c r="AI48" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AJ48" s="1">
+      <c r="AJ48" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AK48" s="1">
+      <c r="AK48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AL48"/>
-      <c r="AM48" s="1">
+      <c r="AL48" s="0"/>
+      <c r="AM48" s="1" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -4681,7 +4387,7 @@
       <c r="D49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E49"/>
+      <c r="E49" s="0"/>
       <c r="G49" s="1" t="s">
         <v>222</v>
       </c>
@@ -4691,8 +4397,8 @@
       <c r="I49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J49"/>
-      <c r="K49" s="1">
+      <c r="J49" s="0"/>
+      <c r="K49" s="1" t="n">
         <v>4</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -4722,26 +4428,26 @@
       <c r="AD49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE49"/>
+      <c r="AE49" s="0"/>
       <c r="AH49" s="1" t="s">
         <v>174</v>
       </c>
       <c r="AI49" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AJ49" s="1">
+      <c r="AJ49" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AK49" s="1">
+      <c r="AK49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AL49"/>
-      <c r="AM49" s="1">
+      <c r="AL49" s="0"/>
+      <c r="AM49" s="1" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -4753,7 +4459,7 @@
       <c r="D50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E50"/>
+      <c r="E50" s="0"/>
       <c r="G50" s="1" t="s">
         <v>225</v>
       </c>
@@ -4763,8 +4469,8 @@
       <c r="I50" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J50"/>
-      <c r="K50" s="1">
+      <c r="J50" s="0"/>
+      <c r="K50" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -4788,26 +4494,26 @@
       <c r="AD50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE50"/>
+      <c r="AE50" s="0"/>
       <c r="AH50" s="1" t="s">
         <v>174</v>
       </c>
       <c r="AI50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AJ50" s="1">
+      <c r="AJ50" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK50" s="1">
+      <c r="AK50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="AL50"/>
-      <c r="AM50" s="1">
+      <c r="AL50" s="0"/>
+      <c r="AM50" s="1" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4831,7 +4537,7 @@
       <c r="I51" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J51"/>
+      <c r="J51" s="0"/>
       <c r="O51" s="1" t="s">
         <v>178</v>
       </c>
@@ -4841,11 +4547,11 @@
       <c r="X51" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Y51"/>
+      <c r="Y51" s="0"/>
       <c r="AD51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AE51" s="2" t="n">
         <v>0.04</v>
       </c>
       <c r="AH51" s="1" t="s">
@@ -4854,19 +4560,19 @@
       <c r="AI51" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AJ51" s="1">
+      <c r="AJ51" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AK51" s="1">
+      <c r="AK51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="AL51"/>
-      <c r="AM51" s="1">
+      <c r="AL51" s="0"/>
+      <c r="AM51" s="1" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -4893,21 +4599,21 @@
       <c r="J52" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O52"/>
+      <c r="O52" s="0"/>
       <c r="S52" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="AK52" s="1">
+      <c r="X52" s="0"/>
+      <c r="Y52" s="0"/>
+      <c r="AK52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="AL52" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4946,12 +4652,12 @@
       <c r="Y53" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="AK53" s="1">
+      <c r="AK53" s="1" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4987,12 +4693,12 @@
       <c r="Y54" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="AK54" s="1">
+      <c r="AK54" s="1" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -5028,12 +4734,12 @@
       <c r="Y55" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="AK55" s="1">
+      <c r="AK55" s="1" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -5060,13 +4766,19 @@
       <c r="S56" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AK56" s="1">
+      <c r="AK56" s="1" t="n">
         <v>313</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <autoFilter ref="A1:AM56"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E32B6-4E7F-4E1B-BA50-36FEC67C77EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1612A467-043B-42A7-B52B-27F06DCEAF17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="13848" yWindow="576" windowWidth="17280" windowHeight="9024" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AM$56</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AM$56</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="259">
   <si>
     <t>Sorting</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Activation, Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -839,6 +836,12 @@
   </si>
   <si>
     <t>number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Traditional Trade</t>
+  </si>
+  <si>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1302,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="Z23" sqref="Z23:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1632,11 +1635,11 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC4" s="4"/>
       <c r="AD4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE4" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1672,10 +1675,10 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>52</v>
@@ -1687,10 +1690,10 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="3" t="s">
@@ -1705,11 +1708,11 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE5" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1745,10 +1748,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>52</v>
@@ -1760,10 +1763,10 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="3" t="s">
@@ -1778,11 +1781,11 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC6" s="4"/>
       <c r="AD6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE6" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1818,10 +1821,10 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>52</v>
@@ -1833,10 +1836,10 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="3" t="s">
@@ -1851,11 +1854,11 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC7" s="4"/>
       <c r="AD7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE7" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1891,10 +1894,10 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>52</v>
@@ -1906,10 +1909,10 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="3" t="s">
@@ -1924,11 +1927,11 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC8" s="4"/>
       <c r="AD8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE8" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1964,10 +1967,10 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>52</v>
@@ -1979,10 +1982,10 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="3" t="s">
@@ -1997,11 +2000,11 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC9" s="4"/>
       <c r="AD9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE9" s="6">
         <v>2.8000000000000001E-2</v>
@@ -2036,13 +2039,13 @@
         <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>52</v>
@@ -2054,7 +2057,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O10" s="3">
         <v>5449000064110</v>
@@ -2072,11 +2075,11 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC10" s="4"/>
       <c r="AD10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="6">
         <v>2.8000000000000001E-2</v>
@@ -2112,10 +2115,10 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>52</v>
@@ -2127,10 +2130,10 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="3" t="s">
@@ -2145,11 +2148,11 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC11" s="4"/>
       <c r="AD11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE11" s="6">
         <v>2.8000000000000001E-2</v>
@@ -2185,10 +2188,10 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>52</v>
@@ -2200,10 +2203,10 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="3" t="s">
@@ -2218,11 +2221,11 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC12" s="4"/>
       <c r="AD12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE12" s="6">
         <v>1.2999999999999999E-2</v>
@@ -2258,10 +2261,10 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>52</v>
@@ -2273,7 +2276,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O13" s="3">
         <v>42099697</v>
@@ -2291,11 +2294,11 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC13" s="4"/>
       <c r="AD13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE13" s="6">
         <v>1.2999999999999999E-2</v>
@@ -2327,14 +2330,14 @@
         <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>48</v>
@@ -2386,14 +2389,14 @@
         <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>52</v>
@@ -2405,10 +2408,10 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="3" t="s">
@@ -2423,11 +2426,11 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC15" s="4"/>
       <c r="AD15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE15" s="6">
         <v>1.7899999999999999E-2</v>
@@ -2459,14 +2462,14 @@
         <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>48</v>
@@ -2498,7 +2501,7 @@
         <v>17</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM16" s="3">
         <v>300</v>
@@ -2518,14 +2521,14 @@
         <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>52</v>
@@ -2537,10 +2540,10 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="3" t="s">
@@ -2555,11 +2558,11 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC17" s="4"/>
       <c r="AD17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE17" s="6">
         <v>1.7899999999999999E-2</v>
@@ -2591,14 +2594,14 @@
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>52</v>
@@ -2610,10 +2613,10 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="3" t="s">
@@ -2628,11 +2631,11 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC18" s="4"/>
       <c r="AD18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE18" s="6">
         <v>1.7899999999999999E-2</v>
@@ -2664,14 +2667,14 @@
         <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>48</v>
@@ -2703,7 +2706,7 @@
         <v>20</v>
       </c>
       <c r="AL19" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AM19" s="3">
         <v>300</v>
@@ -2723,14 +2726,14 @@
         <v>41</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>52</v>
@@ -2742,10 +2745,10 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="3" t="s">
@@ -2760,11 +2763,11 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC20" s="4"/>
       <c r="AD20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE20" s="6">
         <v>1.7899999999999999E-2</v>
@@ -2796,14 +2799,14 @@
         <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>52</v>
@@ -2815,10 +2818,10 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="3" t="s">
@@ -2833,11 +2836,11 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC21" s="4"/>
       <c r="AD21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE21" s="6">
         <v>1.2999999999999999E-2</v>
@@ -2869,14 +2872,14 @@
         <v>41</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>48</v>
@@ -2908,7 +2911,7 @@
         <v>23</v>
       </c>
       <c r="AL22" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AM22" s="3">
         <v>300</v>
@@ -2928,14 +2931,14 @@
         <v>41</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>52</v>
@@ -2947,10 +2950,10 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="3" t="s">
@@ -2965,11 +2968,11 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE23" s="6">
         <v>1.788E-2</v>
@@ -3001,14 +3004,14 @@
         <v>41</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>52</v>
@@ -3020,10 +3023,10 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="3" t="s">
@@ -3038,11 +3041,11 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC24" s="4"/>
       <c r="AD24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE24" s="6">
         <v>1.788E-2</v>
@@ -3074,14 +3077,14 @@
         <v>41</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>52</v>
@@ -3093,10 +3096,10 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="3" t="s">
@@ -3111,11 +3114,11 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC25" s="4"/>
       <c r="AD25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE25" s="6">
         <v>1.788E-2</v>
@@ -3147,14 +3150,14 @@
         <v>41</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>52</v>
@@ -3166,10 +3169,10 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="3" t="s">
@@ -3184,11 +3187,11 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC26" s="4"/>
       <c r="AD26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE26" s="6">
         <v>1.788E-2</v>
@@ -3220,14 +3223,14 @@
         <v>41</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>52</v>
@@ -3239,10 +3242,10 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="3" t="s">
@@ -3257,11 +3260,11 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC27" s="4"/>
       <c r="AD27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE27" s="6">
         <v>1.788E-2</v>
@@ -3293,14 +3296,14 @@
         <v>41</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>52</v>
@@ -3312,10 +3315,10 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="3" t="s">
@@ -3330,11 +3333,11 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC28" s="4"/>
       <c r="AD28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE28" s="6">
         <v>1.2999999999999999E-2</v>
@@ -3366,14 +3369,14 @@
         <v>41</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>52</v>
@@ -3385,10 +3388,10 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="3" t="s">
@@ -3403,11 +3406,11 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="3" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="AC29" s="4"/>
       <c r="AD29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE29" s="6">
         <v>1.2999999999999999E-2</v>
@@ -3441,10 +3444,10 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>41</v>
@@ -3493,10 +3496,10 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>41</v>
@@ -3545,17 +3548,17 @@
         <v>41</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="I32" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="3">
@@ -3571,13 +3574,13 @@
       </c>
       <c r="S32" s="4"/>
       <c r="X32" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE32" s="6">
         <v>0.15</v>
@@ -3591,7 +3594,7 @@
         <v>32</v>
       </c>
       <c r="AL32" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM32" s="3">
         <v>303</v>
@@ -3611,14 +3614,14 @@
         <v>41</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>52</v>
@@ -3630,26 +3633,26 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O33" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="3" t="s">
         <v>55</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE33" s="4"/>
       <c r="AH33" s="4"/>
@@ -3679,19 +3682,19 @@
         <v>41</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="I34" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="3">
@@ -3707,13 +3710,13 @@
       </c>
       <c r="S34" s="4"/>
       <c r="X34" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE34" s="4"/>
       <c r="AH34" s="4"/>
@@ -3725,7 +3728,7 @@
         <v>34</v>
       </c>
       <c r="AL34" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AM34" s="3">
         <v>32</v>
@@ -3745,23 +3748,23 @@
         <v>41</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="3">
         <v>4607042434877</v>
@@ -3774,18 +3777,18 @@
         <v>56</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE35" s="4"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AJ35" s="3">
         <v>4</v>
@@ -3812,23 +3815,23 @@
         <v>41</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="I36" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="3">
         <v>4607042434891</v>
@@ -3841,18 +3844,18 @@
         <v>56</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE36" s="4"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ36" s="3">
         <v>4</v>
@@ -3880,10 +3883,10 @@
       </c>
       <c r="E37" s="4"/>
       <c r="G37" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>41</v>
@@ -3912,7 +3915,7 @@
         <v>310</v>
       </c>
       <c r="AL37" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM37" s="4"/>
     </row>
@@ -3931,10 +3934,10 @@
       </c>
       <c r="E38" s="4"/>
       <c r="G38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>41</v>
@@ -3983,16 +3986,16 @@
         <v>41</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -4002,7 +4005,7 @@
       <c r="O39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S39" s="4"/>
       <c r="X39" s="4"/>
@@ -4010,14 +4013,14 @@
       <c r="Z39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AE39" s="6">
         <v>0.24</v>
       </c>
       <c r="AH39" s="4"/>
       <c r="AI39" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AJ39" s="3">
         <v>2</v>
@@ -4026,7 +4029,7 @@
         <v>36</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM39" s="3">
         <v>311</v>
@@ -4046,16 +4049,16 @@
         <v>41</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="3">
@@ -4066,30 +4069,30 @@
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="X40" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="X40" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE40" s="4"/>
       <c r="AH40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI40" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="AI40" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="AJ40" s="3">
         <v>3</v>
@@ -4116,16 +4119,16 @@
         <v>41</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="3">
@@ -4134,24 +4137,24 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE41" s="4"/>
       <c r="AH41" s="4"/>
@@ -4182,10 +4185,10 @@
       </c>
       <c r="E42" s="4"/>
       <c r="G42" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>41</v>
@@ -4214,7 +4217,7 @@
         <v>312</v>
       </c>
       <c r="AL42" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM42" s="3">
         <v>310</v>
@@ -4234,16 +4237,16 @@
         <v>41</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="3">
@@ -4253,32 +4256,32 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="X43" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="Y43" s="3" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="Z43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE43" s="6">
         <v>0.04</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI43" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ43" s="3">
         <v>2</v>
@@ -4305,16 +4308,16 @@
         <v>41</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -4325,30 +4328,30 @@
         <v>15</v>
       </c>
       <c r="N44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="X44" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE44" s="6">
         <v>0.04</v>
       </c>
       <c r="AH44" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI44" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ44" s="3">
         <v>2</v>
@@ -4375,13 +4378,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>48</v>
@@ -4392,25 +4395,25 @@
       <c r="O45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S45" s="4"/>
       <c r="X45" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AE45" s="6">
         <v>0.04</v>
       </c>
       <c r="AH45" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI45" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ45" s="3">
         <v>2</v>
@@ -4419,7 +4422,7 @@
         <v>42</v>
       </c>
       <c r="AL45" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AM45" s="3">
         <v>312</v>
@@ -4440,49 +4443,49 @@
       </c>
       <c r="E46" s="4"/>
       <c r="G46" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="3">
         <v>0.4</v>
       </c>
       <c r="N46" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="Q46" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>55</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC46" s="4"/>
       <c r="AD46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE46" s="4"/>
       <c r="AH46" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI46" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ46" s="3">
         <v>3</v>
@@ -4510,13 +4513,13 @@
       </c>
       <c r="E47" s="4"/>
       <c r="G47" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="I47" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="3">
@@ -4526,23 +4529,23 @@
       <c r="O47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S47" s="4"/>
       <c r="X47" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE47" s="4"/>
       <c r="AH47" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI47" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ47" s="3">
         <v>3</v>
@@ -4551,7 +4554,7 @@
         <v>45</v>
       </c>
       <c r="AL47" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AM47" s="3">
         <v>42</v>
@@ -4572,10 +4575,10 @@
       </c>
       <c r="E48" s="4"/>
       <c r="G48" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>52</v>
@@ -4585,38 +4588,38 @@
         <v>4</v>
       </c>
       <c r="N48" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O48" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="Q48" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>55</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y48" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC48" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE48" s="4"/>
       <c r="AH48" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI48" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ48" s="3">
         <v>4</v>
@@ -4644,10 +4647,10 @@
       </c>
       <c r="E49" s="4"/>
       <c r="G49" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>52</v>
@@ -4657,38 +4660,38 @@
         <v>4</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>55</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y49" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC49" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE49" s="4"/>
       <c r="AH49" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI49" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ49" s="3">
         <v>4</v>
@@ -4716,45 +4719,45 @@
       </c>
       <c r="E50" s="4"/>
       <c r="G50" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="3">
         <v>2</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>55</v>
       </c>
       <c r="S50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="X50" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="X50" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="Y50" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE50" s="4"/>
       <c r="AH50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI50" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ50" s="3">
         <v>3</v>
@@ -4781,39 +4784,39 @@
         <v>41</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="J51" s="4"/>
       <c r="O51" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="S51" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="S51" s="3" t="s">
+      <c r="X51" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="X51" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="Y51" s="4"/>
       <c r="AD51" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AE51" s="6">
         <v>0.04</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI51" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ51" s="3">
         <v>2</v>
@@ -4837,26 +4840,26 @@
         <v>40</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="O52" s="4"/>
       <c r="S52" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
@@ -4864,7 +4867,7 @@
         <v>50</v>
       </c>
       <c r="AL52" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4878,34 +4881,34 @@
         <v>40</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="O53" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O53" s="3" t="s">
+      <c r="S53" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="S53" s="3" t="s">
+      <c r="X53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y53" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="X53" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y53" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="AK53" s="3">
         <v>51</v>
@@ -4922,31 +4925,31 @@
         <v>40</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="O54" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="O54" s="3" t="s">
+      <c r="S54" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y54" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y54" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="AK54" s="3">
         <v>52</v>
@@ -4963,31 +4966,31 @@
         <v>40</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="S55" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y55" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK55" s="3">
         <v>54</v>
@@ -5004,22 +5007,22 @@
         <v>40</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G56" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="S56" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK56" s="3">
         <v>313</v>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT NS - REG.xlsx
@@ -5,23 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1612A467-043B-42A7-B52B-27F06DCEAF17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A0780AD-14A5-40D3-A7DF-FE1AB2EA52F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AM$56</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AM$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Traditional Trade'!$A$1:$AN$56</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AN$56</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="262">
   <si>
     <t>Sorting</t>
   </si>
@@ -45,9 +51,6 @@
   </si>
   <si>
     <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name old</t>
   </si>
   <si>
     <t>KPI name Eng</t>
@@ -269,9 +272,6 @@
     <t>5449000000712</t>
   </si>
   <si>
-    <t>Sprite - 0.25L Slim</t>
-  </si>
-  <si>
     <t>Schweppes Bitter Lemon - 0.33L</t>
   </si>
   <si>
@@ -498,9 +498,6 @@
     <t>MAN in CAT</t>
   </si>
   <si>
-    <t>Juice Display: Lead SKU Dobriy - Apple</t>
-  </si>
-  <si>
     <t>Juice Display: Lead SKU Dobriy Apple/Multi 1L</t>
   </si>
   <si>
@@ -842,6 +839,24 @@
   </si>
   <si>
     <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ice tea</t>
   </si>
 </sst>
 </file>
@@ -851,7 +866,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -867,8 +882,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,8 +911,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -890,11 +926,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -916,6 +967,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1300,60 +1357,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK56"/>
+  <dimension ref="A1:AML56"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="Z23" sqref="Z23:Z29"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="3"/>
-    <col min="2" max="2" width="13.33203125" style="3"/>
-    <col min="3" max="3" width="25.77734375" style="3"/>
-    <col min="4" max="4" width="12.77734375" style="3"/>
-    <col min="5" max="5" width="18.33203125" style="3"/>
-    <col min="6" max="6" width="20.44140625" style="3"/>
-    <col min="7" max="7" width="54.44140625" style="3"/>
-    <col min="8" max="8" width="76.77734375" style="3"/>
-    <col min="9" max="9" width="50.109375" style="3"/>
-    <col min="10" max="10" width="18.44140625" style="3"/>
-    <col min="11" max="11" width="10" style="3"/>
-    <col min="12" max="12" width="15" style="3"/>
-    <col min="13" max="13" width="15.44140625" style="3"/>
-    <col min="14" max="14" width="32" style="3"/>
-    <col min="15" max="15" width="33.77734375" style="3"/>
-    <col min="16" max="16" width="22.21875" style="3"/>
-    <col min="17" max="17" width="10.88671875" style="3"/>
-    <col min="18" max="18" width="21.33203125" style="3"/>
-    <col min="19" max="19" width="15.88671875" style="3"/>
-    <col min="20" max="20" width="8" style="3"/>
-    <col min="21" max="21" width="16.5546875" style="3"/>
-    <col min="22" max="22" width="20.6640625" style="3"/>
-    <col min="23" max="23" width="26" style="3"/>
-    <col min="24" max="24" width="25.77734375" style="3"/>
-    <col min="25" max="25" width="42.5546875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="28.5546875" style="3"/>
-    <col min="27" max="27" width="29.77734375" style="3"/>
-    <col min="28" max="28" width="30.44140625" style="3"/>
-    <col min="29" max="29" width="18.109375" style="3"/>
-    <col min="30" max="30" width="18.77734375" style="3"/>
-    <col min="31" max="31" width="15.44140625" style="6"/>
-    <col min="32" max="32" width="14.5546875" style="3"/>
-    <col min="33" max="33" width="14.77734375" style="3"/>
-    <col min="34" max="34" width="26.109375" style="3"/>
-    <col min="35" max="35" width="98.21875" style="3"/>
-    <col min="36" max="36" width="8.6640625" style="3"/>
-    <col min="37" max="37" width="10" style="3"/>
-    <col min="38" max="38" width="12.44140625" style="3"/>
-    <col min="39" max="39" width="10.33203125" style="3"/>
-    <col min="40" max="1025" width="10.5546875" style="3"/>
-    <col min="1026" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="11.7109375" style="3"/>
+    <col min="2" max="2" width="13.28515625" style="3"/>
+    <col min="3" max="3" width="25.7109375" style="3"/>
+    <col min="4" max="4" width="12.7109375" style="3"/>
+    <col min="5" max="5" width="18.28515625" style="3"/>
+    <col min="6" max="6" width="54.42578125" style="3"/>
+    <col min="7" max="7" width="76.7109375" style="3"/>
+    <col min="8" max="8" width="50.140625" style="3"/>
+    <col min="9" max="9" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="3"/>
+    <col min="12" max="12" width="10" style="3"/>
+    <col min="13" max="13" width="15" style="3"/>
+    <col min="14" max="14" width="15.42578125" style="3"/>
+    <col min="15" max="15" width="32" style="3"/>
+    <col min="16" max="16" width="33.7109375" style="3"/>
+    <col min="17" max="17" width="22.28515625" style="3"/>
+    <col min="18" max="18" width="10.85546875" style="3"/>
+    <col min="19" max="19" width="21.28515625" style="3"/>
+    <col min="20" max="20" width="15.85546875" style="3"/>
+    <col min="21" max="21" width="8" style="3"/>
+    <col min="22" max="22" width="16.5703125" style="3"/>
+    <col min="23" max="23" width="20.7109375" style="3"/>
+    <col min="24" max="24" width="26" style="3"/>
+    <col min="25" max="25" width="25.7109375" style="3"/>
+    <col min="26" max="26" width="42.5703125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="28.5703125" style="3"/>
+    <col min="28" max="28" width="29.7109375" style="3"/>
+    <col min="29" max="29" width="30.42578125" style="3"/>
+    <col min="30" max="30" width="18.140625" style="3"/>
+    <col min="31" max="31" width="18.7109375" style="3"/>
+    <col min="32" max="32" width="15.42578125" style="6"/>
+    <col min="33" max="33" width="14.5703125" style="3"/>
+    <col min="34" max="34" width="14.7109375" style="3"/>
+    <col min="35" max="35" width="26.140625" style="3"/>
+    <col min="36" max="36" width="98.28515625" style="3"/>
+    <col min="37" max="37" width="8.7109375" style="3"/>
+    <col min="38" max="38" width="10" style="3"/>
+    <col min="39" max="39" width="12.42578125" style="3"/>
+    <col min="40" max="40" width="10.28515625" style="3"/>
+    <col min="41" max="1026" width="10.5703125" style="3"/>
+    <col min="1027" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,3658 +1436,3654 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
       <c r="G2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="4"/>
+        <v>40</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="W2" s="4"/>
+      <c r="T2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="AA2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-      <c r="AH2" s="4"/>
+      <c r="AF2" s="4"/>
       <c r="AI2" s="4"/>
-      <c r="AJ2" s="3">
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="3">
         <v>1</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AL2" s="3">
         <v>300</v>
       </c>
-      <c r="AL2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM2" s="4"/>
-    </row>
-    <row r="3" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN2" s="4"/>
+    </row>
+    <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="4"/>
+      <c r="I3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="P3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="W3" s="4"/>
+      <c r="T3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="3" t="s">
+      <c r="AA3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="3">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM3" s="3">
+      <c r="AN3" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3">
+      <c r="P4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE4" s="6">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="4"/>
+      <c r="S5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE5" s="6">
+      <c r="AF5" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
-      <c r="AJ5" s="3">
-        <v>3</v>
-      </c>
+      <c r="AJ5" s="4"/>
       <c r="AK5" s="3">
         <v>3</v>
       </c>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="3">
+      <c r="AL5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>62</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3">
+      <c r="R6" s="4"/>
+      <c r="S6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE6" s="6">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>4</v>
-      </c>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3">
+      <c r="R7" s="4"/>
+      <c r="S7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>7</v>
+      </c>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>7</v>
-      </c>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3">
+      <c r="R8" s="4"/>
+      <c r="S8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE8" s="6">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>8</v>
-      </c>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G9" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3">
+      <c r="R9" s="4"/>
+      <c r="S9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>9</v>
+      </c>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="3">
         <v>1</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE9" s="6">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>9</v>
-      </c>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3">
+        <v>51</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="N10" s="4"/>
+      <c r="O10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="3">
         <v>5449000064110</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="4"/>
+      <c r="S10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE10" s="6">
+      <c r="AF10" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
-      <c r="AJ10" s="3">
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="3">
         <v>3</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AL10" s="3">
         <v>10</v>
       </c>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="3">
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="G11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3">
+      <c r="R11" s="4"/>
+      <c r="S11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>12</v>
+      </c>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="3">
         <v>1</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE11" s="6">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>12</v>
-      </c>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3">
+      <c r="R12" s="4"/>
+      <c r="S12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>11</v>
+      </c>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="3">
         <v>1</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE12" s="6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>11</v>
-      </c>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3">
+        <v>51</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="N13" s="4"/>
+      <c r="O13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="3">
         <v>42099697</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="4"/>
+      <c r="S13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE13" s="6">
+      <c r="AF13" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
-      <c r="AJ13" s="3">
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="3">
         <v>3</v>
       </c>
-      <c r="AK13" s="3">
+      <c r="AL13" s="3">
         <v>603</v>
       </c>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="3">
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="10" t="s">
+        <v>259</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="P14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="W14" s="4"/>
+      <c r="T14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE14" s="4"/>
-      <c r="AH14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF14" s="4"/>
       <c r="AI14" s="4"/>
-      <c r="AJ14" s="3">
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="3">
         <v>2</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AL14" s="3">
         <v>15</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AM14" s="3">
         <v>16</v>
       </c>
-      <c r="AM14" s="3">
+      <c r="AN14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="4"/>
+      <c r="S15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE15" s="6">
+      <c r="AF15" s="6">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
-      <c r="AJ15" s="3">
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="3">
         <v>3</v>
       </c>
-      <c r="AK15" s="3">
+      <c r="AL15" s="3">
         <v>16</v>
       </c>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="3">
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="P16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="W16" s="4"/>
+      <c r="T16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE16" s="4"/>
-      <c r="AH16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF16" s="4"/>
       <c r="AI16" s="4"/>
-      <c r="AJ16" s="3">
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="3">
         <v>2</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AL16" s="3">
         <v>17</v>
       </c>
-      <c r="AL16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM16" s="3">
+      <c r="AM16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN16" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="G17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="4"/>
+      <c r="S17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE17" s="6">
+      <c r="AF17" s="6">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
-      <c r="AJ17" s="3">
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="3">
         <v>3</v>
       </c>
-      <c r="AK17" s="3">
+      <c r="AL17" s="3">
         <v>18</v>
       </c>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="3">
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="4"/>
+      <c r="S18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE18" s="6">
+      <c r="AF18" s="6">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
-      <c r="AJ18" s="3">
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="3">
         <v>3</v>
       </c>
-      <c r="AK18" s="3">
+      <c r="AL18" s="3">
         <v>19</v>
       </c>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="3">
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="10" t="s">
+        <v>261</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="P19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="W19" s="4"/>
+      <c r="T19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE19" s="4"/>
-      <c r="AH19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF19" s="4"/>
       <c r="AI19" s="4"/>
-      <c r="AJ19" s="3">
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="3">
         <v>2</v>
       </c>
-      <c r="AK19" s="3">
+      <c r="AL19" s="3">
         <v>20</v>
       </c>
-      <c r="AL19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM19" s="3">
+      <c r="AM19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN19" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="G20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="4"/>
+      <c r="S20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE20" s="6">
+      <c r="AF20" s="6">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
-      <c r="AJ20" s="3">
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="3">
         <v>3</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AL20" s="3">
         <v>21</v>
       </c>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="3">
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="G21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="4"/>
+      <c r="S21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE21" s="6">
+      <c r="AF21" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
-      <c r="AJ21" s="3">
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="3">
         <v>3</v>
       </c>
-      <c r="AK21" s="3">
+      <c r="AL21" s="3">
         <v>22</v>
       </c>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="3">
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="P22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="W22" s="4"/>
+      <c r="T22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE22" s="4"/>
-      <c r="AH22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF22" s="4"/>
       <c r="AI22" s="4"/>
-      <c r="AJ22" s="3">
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="3">
         <v>2</v>
       </c>
-      <c r="AK22" s="3">
+      <c r="AL22" s="3">
         <v>23</v>
       </c>
-      <c r="AL22" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM22" s="3">
+      <c r="AM22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="G23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="4"/>
+      <c r="S23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE23" s="6">
+      <c r="AF23" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
-      <c r="AJ23" s="3">
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="3">
         <v>3</v>
       </c>
-      <c r="AK23" s="3">
+      <c r="AL23" s="3">
         <v>24</v>
       </c>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="3">
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="G24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="4"/>
+      <c r="S24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE24" s="6">
+      <c r="AF24" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
-      <c r="AJ24" s="3">
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="3">
         <v>3</v>
       </c>
-      <c r="AK24" s="3">
+      <c r="AL24" s="3">
         <v>25</v>
       </c>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="3">
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>28</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="G25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="4"/>
+      <c r="S25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE25" s="6">
+      <c r="AF25" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
-      <c r="AJ25" s="3">
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="3">
         <v>3</v>
       </c>
-      <c r="AK25" s="3">
+      <c r="AL25" s="3">
         <v>26</v>
       </c>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="3">
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="G26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="4"/>
+      <c r="S26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE26" s="6">
+      <c r="AF26" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
-      <c r="AJ26" s="3">
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="3">
         <v>3</v>
       </c>
-      <c r="AK26" s="3">
+      <c r="AL26" s="3">
         <v>29</v>
       </c>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="3">
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="G27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="3" t="s">
+      <c r="R27" s="4"/>
+      <c r="S27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE27" s="6">
+      <c r="AF27" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
-      <c r="AJ27" s="3">
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="3">
         <v>3</v>
       </c>
-      <c r="AK27" s="3">
+      <c r="AL27" s="3">
         <v>27</v>
       </c>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="3">
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>31</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="G28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="3" t="s">
+      <c r="R28" s="4"/>
+      <c r="S28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE28" s="6">
+      <c r="AF28" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AH28" s="4"/>
       <c r="AI28" s="4"/>
-      <c r="AJ28" s="3">
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="3">
         <v>3</v>
       </c>
-      <c r="AK28" s="3">
+      <c r="AL28" s="3">
         <v>370</v>
       </c>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="3">
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="G29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="4"/>
+      <c r="S29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE29" s="6">
+      <c r="AF29" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AH29" s="4"/>
       <c r="AI29" s="4"/>
-      <c r="AJ29" s="3">
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="3">
         <v>3</v>
       </c>
-      <c r="AK29" s="3">
+      <c r="AL29" s="3">
         <v>30</v>
       </c>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="3">
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="4"/>
+        <v>40</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="Q30" s="4"/>
+      <c r="P30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-      <c r="X30" s="4"/>
+      <c r="T30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
-      <c r="AC30" s="4"/>
+      <c r="AA30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
-      <c r="AH30" s="4"/>
+      <c r="AF30" s="4"/>
       <c r="AI30" s="4"/>
-      <c r="AJ30" s="3">
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="3">
         <v>1</v>
       </c>
-      <c r="AK30" s="3">
+      <c r="AL30" s="3">
         <v>301</v>
       </c>
-      <c r="AL30" s="3">
+      <c r="AM30" s="3">
         <v>303</v>
       </c>
-      <c r="AM30" s="4"/>
-    </row>
-    <row r="31" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN30" s="4"/>
+    </row>
+    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="G31" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="4"/>
+        <v>40</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="P31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-      <c r="X31" s="4"/>
+      <c r="T31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
-      <c r="AC31" s="4"/>
+      <c r="AA31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
-      <c r="AH31" s="4"/>
+      <c r="AF31" s="4"/>
       <c r="AI31" s="4"/>
-      <c r="AJ31" s="3">
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="3">
         <v>1</v>
       </c>
-      <c r="AK31" s="3">
+      <c r="AL31" s="3">
         <v>303</v>
       </c>
-      <c r="AL31" s="3">
+      <c r="AM31" s="3">
         <v>32</v>
       </c>
-      <c r="AM31" s="3">
+      <c r="AN31" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="3">
+      <c r="H32" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="3">
         <v>2</v>
       </c>
-      <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S32" s="4"/>
-      <c r="X32" s="3" t="s">
+      <c r="P32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T32" s="4"/>
+      <c r="Y32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>32</v>
+      </c>
+      <c r="AM32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE32" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="3">
-        <v>2</v>
-      </c>
-      <c r="AK32" s="3">
+      <c r="G33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="3">
+        <v>12</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>33</v>
+      </c>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="3">
         <v>32</v>
       </c>
-      <c r="AL32" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM32" s="3">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>39</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="3">
-        <v>12</v>
-      </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S33" s="3" t="s">
+      <c r="G34" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK33" s="3">
-        <v>33</v>
-      </c>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>40</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="3">
+      <c r="K34" s="4"/>
+      <c r="L34" s="3">
         <v>1</v>
       </c>
-      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S34" s="4"/>
-      <c r="X34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T34" s="4"/>
+      <c r="Y34" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="Z34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE34" s="4"/>
-      <c r="AH34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF34" s="4"/>
       <c r="AI34" s="4"/>
-      <c r="AJ34" s="3">
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="3">
         <v>3</v>
       </c>
-      <c r="AK34" s="3">
+      <c r="AL34" s="3">
         <v>34</v>
       </c>
-      <c r="AL34" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM34" s="3">
+      <c r="AM34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN34" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>151</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="N35" s="4"/>
+      <c r="O35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P35" s="3">
         <v>4607042434877</v>
       </c>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="3" t="s">
+      <c r="R35" s="4"/>
+      <c r="S35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y35" s="4"/>
+      <c r="Y35" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="Z35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ35" s="3">
+      <c r="AA35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK35" s="3">
         <v>4</v>
       </c>
-      <c r="AK35" s="3">
+      <c r="AL35" s="3">
         <v>35</v>
       </c>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="3">
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J36" s="4"/>
+        <v>151</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="O36" s="3">
+      <c r="N36" s="4"/>
+      <c r="O36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36" s="3">
         <v>4607042434891</v>
       </c>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="3" t="s">
+      <c r="R36" s="4"/>
+      <c r="S36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X36" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y36" s="4"/>
+      <c r="Y36" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="Z36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ36" s="3">
+      <c r="AA36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK36" s="3">
         <v>4</v>
       </c>
-      <c r="AK36" s="3">
+      <c r="AL36" s="3">
         <v>55</v>
       </c>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="3">
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" s="4"/>
+      <c r="F37" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="G37" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="4"/>
+        <v>40</v>
+      </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="Q37" s="4"/>
+      <c r="P37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-      <c r="X37" s="4"/>
+      <c r="T37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
-      <c r="AC37" s="4"/>
+      <c r="AA37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
-      <c r="AH37" s="4"/>
+      <c r="AF37" s="4"/>
       <c r="AI37" s="4"/>
-      <c r="AJ37" s="3">
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="3">
         <v>1</v>
       </c>
-      <c r="AK37" s="3">
+      <c r="AL37" s="3">
         <v>310</v>
       </c>
-      <c r="AL37" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM37" s="4"/>
-    </row>
-    <row r="38" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM37" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN37" s="4"/>
+    </row>
+    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" s="4"/>
+      <c r="F38" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="G38" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" s="4"/>
+        <v>40</v>
+      </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
-      <c r="Q38" s="4"/>
+      <c r="P38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="T38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
-      <c r="AC38" s="4"/>
+      <c r="AA38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
-      <c r="AH38" s="4"/>
+      <c r="AF38" s="4"/>
       <c r="AI38" s="4"/>
-      <c r="AJ38" s="3">
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="3">
         <v>1</v>
       </c>
-      <c r="AK38" s="3">
+      <c r="AL38" s="3">
         <v>311</v>
       </c>
-      <c r="AL38" s="3">
+      <c r="AM38" s="3">
         <v>36</v>
       </c>
-      <c r="AM38" s="3">
+      <c r="AN38" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="S39" s="4"/>
-      <c r="X39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T39" s="4"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE39" s="6">
+      <c r="AA39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF39" s="6">
         <v>0.24</v>
       </c>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ39" s="3">
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK39" s="3">
         <v>2</v>
       </c>
-      <c r="AK39" s="3">
+      <c r="AL39" s="3">
         <v>36</v>
       </c>
-      <c r="AL39" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM39" s="3">
+      <c r="AM39" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN39" s="3">
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>46</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M40" s="3">
+        <v>30</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L40" s="3">
-        <v>30</v>
-      </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="3" t="s">
+      <c r="Y40" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="Z40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF40" s="4"/>
+      <c r="AI40" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="3" t="s">
+      <c r="AJ40" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="X40" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE40" s="4"/>
-      <c r="AH40" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI40" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ40" s="3">
+      <c r="AK40" s="3">
         <v>3</v>
       </c>
-      <c r="AK40" s="3">
+      <c r="AL40" s="3">
         <v>37</v>
       </c>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="3">
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>47</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y41" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE41" s="4"/>
-      <c r="AH41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF41" s="4"/>
       <c r="AI41" s="4"/>
-      <c r="AJ41" s="3">
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="3">
         <v>3</v>
       </c>
-      <c r="AK41" s="3">
-        <v>39</v>
-      </c>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="3">
+      <c r="AL41" s="3">
+        <v>39</v>
+      </c>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>48</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="4"/>
+      <c r="F42" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="G42" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="4"/>
+        <v>40</v>
+      </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="Q42" s="4"/>
+      <c r="P42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="X42" s="4"/>
+      <c r="T42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
-      <c r="AC42" s="4"/>
+      <c r="AA42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
-      <c r="AH42" s="4"/>
+      <c r="AF42" s="4"/>
       <c r="AI42" s="4"/>
-      <c r="AJ42" s="3">
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="3">
         <v>1</v>
       </c>
-      <c r="AK42" s="3">
+      <c r="AL42" s="3">
         <v>312</v>
       </c>
-      <c r="AL42" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM42" s="3">
+      <c r="AM42" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN42" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>49</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="3">
+      <c r="K43" s="4"/>
+      <c r="L43" s="3">
         <v>1</v>
       </c>
-      <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="4"/>
+      <c r="P43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF43" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="AI43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ43" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE43" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="AH43" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI43" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ43" s="3">
+      <c r="AK43" s="3">
         <v>2</v>
       </c>
-      <c r="AK43" s="3">
-        <v>40</v>
-      </c>
-      <c r="AL43" s="4"/>
-      <c r="AM43" s="3">
+      <c r="AL43" s="3">
+        <v>40</v>
+      </c>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>50</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J44" s="4"/>
+        <v>195</v>
+      </c>
       <c r="K44" s="4"/>
-      <c r="L44" s="3">
+      <c r="L44" s="4"/>
+      <c r="M44" s="3">
         <v>1</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>15</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="O44" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q44" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-      <c r="X44" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE44" s="6">
+      <c r="T44" s="4"/>
+      <c r="Y44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF44" s="6">
         <v>0.04</v>
       </c>
-      <c r="AH44" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="AI44" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ44" s="3">
+        <v>169</v>
+      </c>
+      <c r="AJ44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK44" s="3">
         <v>2</v>
       </c>
-      <c r="AK44" s="3">
+      <c r="AL44" s="3">
         <v>41</v>
       </c>
-      <c r="AL44" s="4"/>
-      <c r="AM44" s="3">
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>51</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="T45" s="4"/>
+      <c r="Y45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF45" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="AI45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK45" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL45" s="3">
+        <v>42</v>
+      </c>
+      <c r="AM45" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="S45" s="4"/>
-      <c r="X45" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE45" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="AH45" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI45" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ45" s="3">
-        <v>2</v>
-      </c>
-      <c r="AK45" s="3">
-        <v>42</v>
-      </c>
-      <c r="AL45" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM45" s="3">
+      <c r="AN45" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>52</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="4"/>
+      <c r="F46" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="R46" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T46" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="Y46" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE46" s="4"/>
-      <c r="AH46" s="3" t="s">
-        <v>172</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF46" s="4"/>
       <c r="AI46" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ46" s="3">
+        <v>169</v>
+      </c>
+      <c r="AJ46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK46" s="3">
         <v>3</v>
       </c>
-      <c r="AK46" s="3">
+      <c r="AL46" s="3">
         <v>43</v>
       </c>
-      <c r="AL46" s="4"/>
-      <c r="AM46" s="3">
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>53</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47" s="4"/>
+      <c r="F47" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="G47" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="3">
+        <v>147</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="3">
         <v>2</v>
       </c>
-      <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="S47" s="4"/>
-      <c r="X47" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE47" s="4"/>
-      <c r="AH47" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="P47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="T47" s="4"/>
+      <c r="Y47" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF47" s="4"/>
       <c r="AI47" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ47" s="3">
+        <v>169</v>
+      </c>
+      <c r="AJ47" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK47" s="3">
         <v>3</v>
       </c>
-      <c r="AK47" s="3">
+      <c r="AL47" s="3">
         <v>45</v>
       </c>
-      <c r="AL47" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM47" s="3">
+      <c r="AM47" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN47" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>54</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E48" s="4"/>
+      <c r="F48" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="G48" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="3">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P48" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="R48" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z48" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD48" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="3">
+      <c r="AE48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF48" s="4"/>
+      <c r="AI48" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK48" s="3">
         <v>4</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y48" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC48" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE48" s="4"/>
-      <c r="AH48" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI48" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ48" s="3">
-        <v>4</v>
-      </c>
-      <c r="AK48" s="3">
+      <c r="AL48" s="3">
         <v>46</v>
       </c>
-      <c r="AL48" s="4"/>
-      <c r="AM48" s="3">
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>55</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E49" s="4"/>
+      <c r="F49" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="G49" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="3">
+        <v>51</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="3">
         <v>4</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="O49" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>207</v>
+        <v>216</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y49" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC49" s="3" t="s">
-        <v>216</v>
+        <v>54</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z49" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="AD49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE49" s="4"/>
-      <c r="AH49" s="3" t="s">
-        <v>172</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF49" s="4"/>
       <c r="AI49" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ49" s="3">
+        <v>169</v>
+      </c>
+      <c r="AJ49" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK49" s="3">
         <v>4</v>
       </c>
-      <c r="AK49" s="3">
+      <c r="AL49" s="3">
         <v>47</v>
       </c>
-      <c r="AL49" s="4"/>
-      <c r="AM49" s="3">
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>56</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E50" s="4"/>
+      <c r="F50" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="G50" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="3">
+        <v>219</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="3">
         <v>2</v>
       </c>
-      <c r="N50" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="O50" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>55</v>
+        <v>142</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="X50" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y50" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD50" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE50" s="4"/>
-      <c r="AH50" s="3" t="s">
-        <v>172</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y50" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z50" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF50" s="4"/>
       <c r="AI50" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ50" s="3">
+        <v>169</v>
+      </c>
+      <c r="AJ50" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK50" s="3">
         <v>3</v>
       </c>
-      <c r="AK50" s="3">
+      <c r="AL50" s="3">
         <v>48</v>
       </c>
-      <c r="AL50" s="4"/>
-      <c r="AM50" s="3">
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>57</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J51" s="4"/>
-      <c r="O51" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="X51" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y51" s="4"/>
-      <c r="AD51" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="P51" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z51" s="4"/>
+      <c r="AE51" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF51" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="AI51" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AE51" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="AH51" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI51" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ51" s="3">
+      <c r="AJ51" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK51" s="3">
         <v>2</v>
       </c>
-      <c r="AK51" s="3">
+      <c r="AL51" s="3">
         <v>49</v>
       </c>
-      <c r="AL51" s="4"/>
-      <c r="AM51" s="3">
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>58</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="P52" s="4"/>
+      <c r="T52" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="O52" s="4"/>
-      <c r="S52" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
-      <c r="AK52" s="3">
+      <c r="Z52" s="4"/>
+      <c r="AL52" s="3">
         <v>50</v>
       </c>
-      <c r="AL52" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM52" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>59</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="K53" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P53" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="T53" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="Y53" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z53" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="X53" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y53" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK53" s="3">
+      <c r="AL53" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>60</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="P54" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="T54" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z54" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y54" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AK54" s="3">
+      <c r="AL54" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>61</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="P55" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I55" s="3" t="s">
+      <c r="T55" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z55" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y55" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AK55" s="3">
+      <c r="AL55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>62</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK56" s="3">
+        <v>249</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL56" s="3">
         <v>313</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
